--- a/source/excel/2016-olympic-qualifiers-concacaf/2016-olympic-qualifiers-concacaf-usa-pur-021516.xlsx
+++ b/source/excel/2016-olympic-qualifiers-concacaf/2016-olympic-qualifiers-concacaf-usa-pur-021516.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="3820" windowWidth="17700" windowHeight="21760" tabRatio="697"/>
+    <workbookView xWindow="-580" yWindow="300" windowWidth="25960" windowHeight="15140" tabRatio="697"/>
   </bookViews>
   <sheets>
     <sheet name="match" sheetId="1" r:id="rId1"/>
@@ -1866,9 +1866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="29" topLeftCell="A1430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1443" sqref="S1443"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane ySplit="29" topLeftCell="A1231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1238" sqref="I1238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -51070,7 +51070,7 @@
         <v>50</v>
       </c>
       <c r="G807" s="30" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="H807" s="30" t="s">
         <v>20</v>
@@ -55798,7 +55798,7 @@
         <v>59</v>
       </c>
       <c r="G885" s="30" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="H885" s="30" t="s">
         <v>20</v>
@@ -66780,7 +66780,7 @@
         <v>50</v>
       </c>
       <c r="G1065" s="30" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H1065" s="30" t="s">
         <v>20</v>

--- a/source/excel/2016-olympic-qualifiers-concacaf/2016-olympic-qualifiers-concacaf-usa-pur-021516.xlsx
+++ b/source/excel/2016-olympic-qualifiers-concacaf/2016-olympic-qualifiers-concacaf-usa-pur-021516.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21217" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21217" uniqueCount="179">
   <si>
     <t>event</t>
   </si>
@@ -491,9 +491,6 @@
   </si>
   <si>
     <t>dribbled.tackles.missed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -</t>
   </si>
   <si>
     <t>Colon</t>
@@ -1860,8 +1857,8 @@
   <dimension ref="A1:T1243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="29" topLeftCell="A599" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D607" sqref="D607"/>
+      <pane ySplit="29" topLeftCell="A1169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1174" sqref="E1174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2044,13 +2041,13 @@
         <v>33</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>37</v>
@@ -2106,7 +2103,7 @@
         <v>41</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>43</v>
@@ -2168,7 +2165,7 @@
         <v>49</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>51</v>
@@ -2230,7 +2227,7 @@
         <v>58</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>60</v>
@@ -2271,7 +2268,7 @@
         <v>67</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>68</v>
@@ -2333,7 +2330,7 @@
         <v>73</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>74</v>
@@ -2360,7 +2357,7 @@
         <v>74</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>20</v>
@@ -2395,7 +2392,7 @@
         <v>77</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>78</v>
@@ -2404,7 +2401,7 @@
         <v>78</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>66</v>
@@ -2422,7 +2419,7 @@
         <v>78</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>20</v>
@@ -2519,7 +2516,7 @@
         <v>87</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>88</v>
@@ -2581,7 +2578,7 @@
         <v>91</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>92</v>
@@ -2974,7 +2971,7 @@
         <v>116</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>20</v>
@@ -3012,7 +3009,7 @@
         <v>108</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>107</v>
@@ -3033,10 +3030,10 @@
         <v>108</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>20</v>
@@ -3098,7 +3095,7 @@
         <v>117</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>20</v>
@@ -3260,7 +3257,7 @@
         <v>108</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>126</v>
@@ -3446,7 +3443,7 @@
         <v>108</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>134</v>
@@ -3467,7 +3464,7 @@
         <v>108</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M26" s="15" t="s">
         <v>135</v>
@@ -3508,7 +3505,7 @@
         <v>108</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>136</v>
@@ -3529,7 +3526,7 @@
         <v>108</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M27" s="15" t="s">
         <v>137</v>
@@ -3570,7 +3567,7 @@
         <v>108</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>138</v>
@@ -3591,7 +3588,7 @@
         <v>108</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M28" s="24" t="s">
         <v>20</v>
@@ -3632,7 +3629,7 @@
         <v>108</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F29" s="26" t="s">
         <v>139</v>
@@ -3653,7 +3650,7 @@
         <v>108</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M29" s="24" t="s">
         <v>20</v>
@@ -3758,7 +3755,7 @@
         <v>119</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G31" s="27" t="s">
         <v>20</v>
@@ -3840,7 +3837,7 @@
         <v>67</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N32" s="27" t="s">
         <v>20</v>
@@ -3880,7 +3877,7 @@
         <v>91</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>20</v>
@@ -4002,7 +3999,7 @@
         <v>87</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G35" s="27" t="s">
         <v>20</v>
@@ -4023,7 +4020,7 @@
         <v>122</v>
       </c>
       <c r="M35" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N35" s="27" t="s">
         <v>20</v>
@@ -4124,7 +4121,7 @@
         <v>58</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G37" s="27" t="s">
         <v>20</v>
@@ -4133,7 +4130,7 @@
         <v>20</v>
       </c>
       <c r="I37" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>20</v>
@@ -4203,7 +4200,7 @@
         <v>20</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M38" s="27" t="s">
         <v>107</v>
@@ -4307,7 +4304,7 @@
         <v>117</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G40" s="27" t="s">
         <v>20</v>
@@ -4368,7 +4365,7 @@
         <v>119</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G41" s="27" t="s">
         <v>20</v>
@@ -4429,7 +4426,7 @@
         <v>77</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G42" s="27" t="s">
         <v>20</v>
@@ -4490,7 +4487,7 @@
         <v>41</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G43" s="27" t="s">
         <v>20</v>
@@ -4551,7 +4548,7 @@
         <v>91</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G44" s="27" t="s">
         <v>20</v>
@@ -4612,7 +4609,7 @@
         <v>77</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G45" s="27" t="s">
         <v>20</v>
@@ -4673,7 +4670,7 @@
         <v>77</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G46" s="27" t="s">
         <v>20</v>
@@ -4734,7 +4731,7 @@
         <v>122</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G47" s="27" t="s">
         <v>20</v>
@@ -4743,7 +4740,7 @@
         <v>20</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>20</v>
@@ -4917,7 +4914,7 @@
         <v>87</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G50" s="27" t="s">
         <v>20</v>
@@ -4978,7 +4975,7 @@
         <v>67</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G51" s="27" t="s">
         <v>20</v>
@@ -5222,7 +5219,7 @@
         <v>33</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G55" s="27" t="s">
         <v>20</v>
@@ -5231,7 +5228,7 @@
         <v>20</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>20</v>
@@ -5283,7 +5280,7 @@
         <v>77</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G56" s="27" t="s">
         <v>20</v>
@@ -5344,7 +5341,7 @@
         <v>49</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G57" s="27" t="s">
         <v>20</v>
@@ -5405,7 +5402,7 @@
         <v>33</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G58" s="27" t="s">
         <v>20</v>
@@ -5466,7 +5463,7 @@
         <v>67</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G59" s="27" t="s">
         <v>20</v>
@@ -5649,7 +5646,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G62" s="27" t="s">
         <v>20</v>
@@ -5771,7 +5768,7 @@
         <v>49</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G64" s="27" t="s">
         <v>20</v>
@@ -5832,7 +5829,7 @@
         <v>33</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G65" s="27" t="s">
         <v>20</v>
@@ -5893,7 +5890,7 @@
         <v>77</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G66" s="27" t="s">
         <v>20</v>
@@ -5954,7 +5951,7 @@
         <v>81</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G67" s="27" t="s">
         <v>20</v>
@@ -6015,7 +6012,7 @@
         <v>33</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G68" s="27" t="s">
         <v>20</v>
@@ -6024,7 +6021,7 @@
         <v>20</v>
       </c>
       <c r="I68" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>20</v>
@@ -6076,7 +6073,7 @@
         <v>49</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G69" s="27" t="s">
         <v>20</v>
@@ -6137,7 +6134,7 @@
         <v>87</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G70" s="27" t="s">
         <v>20</v>
@@ -6198,7 +6195,7 @@
         <v>33</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G71" s="27" t="s">
         <v>20</v>
@@ -6216,7 +6213,7 @@
         <v>20</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M71" s="27" t="s">
         <v>94</v>
@@ -6277,7 +6274,7 @@
         <v>20</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M72" s="27" t="s">
         <v>107</v>
@@ -6320,7 +6317,7 @@
         <v>49</v>
       </c>
       <c r="F73" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G73" s="27" t="s">
         <v>20</v>
@@ -6329,7 +6326,7 @@
         <v>20</v>
       </c>
       <c r="I73" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>20</v>
@@ -6503,7 +6500,7 @@
         <v>128</v>
       </c>
       <c r="F76" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G76" s="27" t="s">
         <v>20</v>
@@ -6686,7 +6683,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G79" s="27" t="s">
         <v>20</v>
@@ -6747,7 +6744,7 @@
         <v>41</v>
       </c>
       <c r="F80" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G80" s="27" t="s">
         <v>20</v>
@@ -6808,7 +6805,7 @@
         <v>77</v>
       </c>
       <c r="F81" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G81" s="27" t="s">
         <v>20</v>
@@ -6869,7 +6866,7 @@
         <v>49</v>
       </c>
       <c r="F82" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G82" s="27" t="s">
         <v>20</v>
@@ -6930,7 +6927,7 @@
         <v>73</v>
       </c>
       <c r="F83" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G83" s="27" t="s">
         <v>20</v>
@@ -6991,7 +6988,7 @@
         <v>81</v>
       </c>
       <c r="F84" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G84" s="27" t="s">
         <v>20</v>
@@ -7052,7 +7049,7 @@
         <v>58</v>
       </c>
       <c r="F85" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G85" s="27" t="s">
         <v>20</v>
@@ -7113,7 +7110,7 @@
         <v>41</v>
       </c>
       <c r="F86" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G86" s="27" t="s">
         <v>20</v>
@@ -7174,7 +7171,7 @@
         <v>49</v>
       </c>
       <c r="F87" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G87" s="27" t="s">
         <v>20</v>
@@ -7235,7 +7232,7 @@
         <v>73</v>
       </c>
       <c r="F88" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G88" s="27" t="s">
         <v>20</v>
@@ -7296,7 +7293,7 @@
         <v>67</v>
       </c>
       <c r="F89" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G89" s="27" t="s">
         <v>20</v>
@@ -7418,7 +7415,7 @@
         <v>67</v>
       </c>
       <c r="F91" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G91" s="27" t="s">
         <v>20</v>
@@ -7479,7 +7476,7 @@
         <v>67</v>
       </c>
       <c r="F92" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G92" s="27" t="s">
         <v>20</v>
@@ -7662,7 +7659,7 @@
         <v>73</v>
       </c>
       <c r="F95" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G95" s="27" t="s">
         <v>20</v>
@@ -7784,7 +7781,7 @@
         <v>58</v>
       </c>
       <c r="F97" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G97" s="27" t="s">
         <v>20</v>
@@ -7802,7 +7799,7 @@
         <v>20</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M97" s="27" t="s">
         <v>94</v>
@@ -7906,7 +7903,7 @@
         <v>58</v>
       </c>
       <c r="F99" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G99" s="27" t="s">
         <v>20</v>
@@ -7967,7 +7964,7 @@
         <v>91</v>
       </c>
       <c r="F100" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G100" s="27" t="s">
         <v>20</v>
@@ -7988,7 +7985,7 @@
         <v>122</v>
       </c>
       <c r="M100" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N100" s="27" t="s">
         <v>20</v>
@@ -8089,7 +8086,7 @@
         <v>109</v>
       </c>
       <c r="F102" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G102" s="27" t="s">
         <v>20</v>
@@ -8147,7 +8144,7 @@
         <v>20</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F103" s="27" t="s">
         <v>110</v>
@@ -8272,7 +8269,7 @@
         <v>67</v>
       </c>
       <c r="F105" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G105" s="27" t="s">
         <v>20</v>
@@ -8333,7 +8330,7 @@
         <v>81</v>
       </c>
       <c r="F106" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G106" s="27" t="s">
         <v>20</v>
@@ -8394,7 +8391,7 @@
         <v>58</v>
       </c>
       <c r="F107" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G107" s="27" t="s">
         <v>20</v>
@@ -8455,7 +8452,7 @@
         <v>77</v>
       </c>
       <c r="F108" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G108" s="27" t="s">
         <v>20</v>
@@ -8577,7 +8574,7 @@
         <v>116</v>
       </c>
       <c r="F110" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G110" s="27" t="s">
         <v>20</v>
@@ -8638,7 +8635,7 @@
         <v>119</v>
       </c>
       <c r="F111" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G111" s="27" t="s">
         <v>20</v>
@@ -8699,7 +8696,7 @@
         <v>116</v>
       </c>
       <c r="F112" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G112" s="27" t="s">
         <v>20</v>
@@ -8760,7 +8757,7 @@
         <v>119</v>
       </c>
       <c r="F113" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G113" s="27" t="s">
         <v>20</v>
@@ -8820,10 +8817,10 @@
         <v>20</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F114" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="F114" s="27" t="s">
-        <v>165</v>
       </c>
       <c r="G114" s="27" t="s">
         <v>20</v>
@@ -9067,7 +9064,7 @@
         <v>128</v>
       </c>
       <c r="F118" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G118" s="27" t="s">
         <v>20</v>
@@ -9125,7 +9122,7 @@
         <v>20</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F119" s="27" t="s">
         <v>104</v>
@@ -9311,7 +9308,7 @@
         <v>87</v>
       </c>
       <c r="F122" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G122" s="27" t="s">
         <v>20</v>
@@ -9372,7 +9369,7 @@
         <v>81</v>
       </c>
       <c r="F123" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G123" s="27" t="s">
         <v>20</v>
@@ -9433,7 +9430,7 @@
         <v>81</v>
       </c>
       <c r="F124" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G124" s="27" t="s">
         <v>20</v>
@@ -9494,7 +9491,7 @@
         <v>87</v>
       </c>
       <c r="F125" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G125" s="27" t="s">
         <v>20</v>
@@ -9576,7 +9573,7 @@
         <v>109</v>
       </c>
       <c r="M126" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N126" s="27" t="s">
         <v>20</v>
@@ -9677,7 +9674,7 @@
         <v>113</v>
       </c>
       <c r="F128" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G128" s="27" t="s">
         <v>20</v>
@@ -9738,7 +9735,7 @@
         <v>116</v>
       </c>
       <c r="F129" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G129" s="27" t="s">
         <v>20</v>
@@ -9820,7 +9817,7 @@
         <v>77</v>
       </c>
       <c r="M130" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N130" s="27" t="s">
         <v>20</v>
@@ -9860,7 +9857,7 @@
         <v>77</v>
       </c>
       <c r="F131" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G131" s="27" t="s">
         <v>20</v>
@@ -9921,7 +9918,7 @@
         <v>41</v>
       </c>
       <c r="F132" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G132" s="27" t="s">
         <v>20</v>
@@ -9982,7 +9979,7 @@
         <v>109</v>
       </c>
       <c r="F133" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G133" s="27" t="s">
         <v>20</v>
@@ -10040,7 +10037,7 @@
         <v>20</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F134" s="27" t="s">
         <v>104</v>
@@ -10165,7 +10162,7 @@
         <v>87</v>
       </c>
       <c r="F136" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G136" s="27" t="s">
         <v>20</v>
@@ -10226,7 +10223,7 @@
         <v>77</v>
       </c>
       <c r="F137" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G137" s="27" t="s">
         <v>20</v>
@@ -10348,7 +10345,7 @@
         <v>87</v>
       </c>
       <c r="F139" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G139" s="27" t="s">
         <v>20</v>
@@ -10409,7 +10406,7 @@
         <v>109</v>
       </c>
       <c r="F140" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G140" s="27" t="s">
         <v>20</v>
@@ -10531,7 +10528,7 @@
         <v>73</v>
       </c>
       <c r="F142" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G142" s="27" t="s">
         <v>20</v>
@@ -10589,10 +10586,10 @@
         <v>20</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F143" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G143" s="27" t="s">
         <v>20</v>
@@ -10652,10 +10649,10 @@
         <v>20</v>
       </c>
       <c r="E144" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F144" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="F144" s="27" t="s">
-        <v>165</v>
       </c>
       <c r="G144" s="27" t="s">
         <v>20</v>
@@ -10838,7 +10835,7 @@
         <v>73</v>
       </c>
       <c r="F147" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G147" s="27" t="s">
         <v>20</v>
@@ -10856,7 +10853,7 @@
         <v>20</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M147" s="27" t="s">
         <v>85</v>
@@ -10899,7 +10896,7 @@
         <v>58</v>
       </c>
       <c r="F148" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G148" s="27" t="s">
         <v>20</v>
@@ -10917,7 +10914,7 @@
         <v>20</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M148" s="27" t="s">
         <v>85</v>
@@ -10960,7 +10957,7 @@
         <v>67</v>
       </c>
       <c r="F149" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G149" s="27" t="s">
         <v>20</v>
@@ -11021,7 +11018,7 @@
         <v>73</v>
       </c>
       <c r="F150" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G150" s="27" t="s">
         <v>20</v>
@@ -11082,7 +11079,7 @@
         <v>49</v>
       </c>
       <c r="F151" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G151" s="27" t="s">
         <v>20</v>
@@ -11143,7 +11140,7 @@
         <v>41</v>
       </c>
       <c r="F152" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G152" s="27" t="s">
         <v>20</v>
@@ -11204,7 +11201,7 @@
         <v>109</v>
       </c>
       <c r="F153" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G153" s="27" t="s">
         <v>20</v>
@@ -11387,7 +11384,7 @@
         <v>73</v>
       </c>
       <c r="F156" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G156" s="27" t="s">
         <v>20</v>
@@ -11448,7 +11445,7 @@
         <v>33</v>
       </c>
       <c r="F157" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G157" s="27" t="s">
         <v>20</v>
@@ -11570,7 +11567,7 @@
         <v>33</v>
       </c>
       <c r="F159" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G159" s="27" t="s">
         <v>20</v>
@@ -11579,7 +11576,7 @@
         <v>20</v>
       </c>
       <c r="I159" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>20</v>
@@ -11631,7 +11628,7 @@
         <v>81</v>
       </c>
       <c r="F160" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G160" s="27" t="s">
         <v>20</v>
@@ -11692,7 +11689,7 @@
         <v>33</v>
       </c>
       <c r="F161" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G161" s="27" t="s">
         <v>20</v>
@@ -11753,7 +11750,7 @@
         <v>81</v>
       </c>
       <c r="F162" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G162" s="27" t="s">
         <v>20</v>
@@ -11814,7 +11811,7 @@
         <v>33</v>
       </c>
       <c r="F163" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G163" s="27" t="s">
         <v>20</v>
@@ -11875,7 +11872,7 @@
         <v>81</v>
       </c>
       <c r="F164" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G164" s="27" t="s">
         <v>20</v>
@@ -11936,7 +11933,7 @@
         <v>81</v>
       </c>
       <c r="F165" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G165" s="27" t="s">
         <v>20</v>
@@ -11997,7 +11994,7 @@
         <v>81</v>
       </c>
       <c r="F166" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G166" s="27" t="s">
         <v>20</v>
@@ -12058,7 +12055,7 @@
         <v>109</v>
       </c>
       <c r="F167" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G167" s="27" t="s">
         <v>20</v>
@@ -12241,7 +12238,7 @@
         <v>33</v>
       </c>
       <c r="F170" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G170" s="27" t="s">
         <v>20</v>
@@ -12302,7 +12299,7 @@
         <v>33</v>
       </c>
       <c r="F171" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G171" s="27" t="s">
         <v>20</v>
@@ -12363,7 +12360,7 @@
         <v>81</v>
       </c>
       <c r="F172" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G172" s="27" t="s">
         <v>20</v>
@@ -12424,7 +12421,7 @@
         <v>73</v>
       </c>
       <c r="F173" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G173" s="27" t="s">
         <v>20</v>
@@ -12485,7 +12482,7 @@
         <v>91</v>
       </c>
       <c r="F174" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G174" s="27" t="s">
         <v>20</v>
@@ -12546,7 +12543,7 @@
         <v>91</v>
       </c>
       <c r="F175" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G175" s="27" t="s">
         <v>20</v>
@@ -12564,7 +12561,7 @@
         <v>20</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M175" s="27" t="s">
         <v>94</v>
@@ -12668,7 +12665,7 @@
         <v>91</v>
       </c>
       <c r="F177" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G177" s="27" t="s">
         <v>20</v>
@@ -12729,7 +12726,7 @@
         <v>91</v>
       </c>
       <c r="F178" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G178" s="27" t="s">
         <v>20</v>
@@ -12747,7 +12744,7 @@
         <v>20</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M178" s="27" t="s">
         <v>94</v>
@@ -12790,7 +12787,7 @@
         <v>58</v>
       </c>
       <c r="F179" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G179" s="27" t="s">
         <v>20</v>
@@ -12869,7 +12866,7 @@
         <v>20</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M180" s="27" t="s">
         <v>110</v>
@@ -12994,7 +12991,7 @@
         <v>109</v>
       </c>
       <c r="M182" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N182" s="27" t="s">
         <v>20</v>
@@ -13095,7 +13092,7 @@
         <v>73</v>
       </c>
       <c r="F184" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G184" s="27" t="s">
         <v>20</v>
@@ -13156,7 +13153,7 @@
         <v>87</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G185" s="27" t="s">
         <v>20</v>
@@ -13217,7 +13214,7 @@
         <v>33</v>
       </c>
       <c r="F186" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G186" s="27" t="s">
         <v>20</v>
@@ -13278,7 +13275,7 @@
         <v>49</v>
       </c>
       <c r="F187" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G187" s="27" t="s">
         <v>20</v>
@@ -13339,7 +13336,7 @@
         <v>77</v>
       </c>
       <c r="F188" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G188" s="27" t="s">
         <v>20</v>
@@ -13400,7 +13397,7 @@
         <v>67</v>
       </c>
       <c r="F189" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G189" s="27" t="s">
         <v>20</v>
@@ -13461,7 +13458,7 @@
         <v>87</v>
       </c>
       <c r="F190" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G190" s="27" t="s">
         <v>20</v>
@@ -13583,7 +13580,7 @@
         <v>109</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G192" s="27" t="s">
         <v>20</v>
@@ -13705,7 +13702,7 @@
         <v>81</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G194" s="27" t="s">
         <v>20</v>
@@ -13766,7 +13763,7 @@
         <v>87</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G195" s="27" t="s">
         <v>20</v>
@@ -13827,7 +13824,7 @@
         <v>87</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G196" s="27" t="s">
         <v>20</v>
@@ -13888,7 +13885,7 @@
         <v>67</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G197" s="27" t="s">
         <v>20</v>
@@ -13949,7 +13946,7 @@
         <v>58</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G198" s="27" t="s">
         <v>20</v>
@@ -14132,7 +14129,7 @@
         <v>91</v>
       </c>
       <c r="F201" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G201" s="27" t="s">
         <v>20</v>
@@ -14193,7 +14190,7 @@
         <v>91</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G202" s="27" t="s">
         <v>20</v>
@@ -14254,7 +14251,7 @@
         <v>58</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G203" s="27" t="s">
         <v>20</v>
@@ -14333,7 +14330,7 @@
         <v>20</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M204" s="27" t="s">
         <v>110</v>
@@ -14397,7 +14394,7 @@
         <v>109</v>
       </c>
       <c r="M205" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N205" s="27" t="s">
         <v>20</v>
@@ -14458,13 +14455,13 @@
         <v>109</v>
       </c>
       <c r="M206" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N206" s="27" t="s">
         <v>20</v>
       </c>
       <c r="O206" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P206" s="27" t="s">
         <v>37</v>
@@ -14498,7 +14495,7 @@
         <v>109</v>
       </c>
       <c r="F207" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G207" s="27" t="s">
         <v>20</v>
@@ -14556,7 +14553,7 @@
         <v>20</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F208" s="27" t="s">
         <v>114</v>
@@ -14617,10 +14614,10 @@
         <v>20</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G209" s="27" t="s">
         <v>20</v>
@@ -14742,7 +14739,7 @@
         <v>58</v>
       </c>
       <c r="F211" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G211" s="27" t="s">
         <v>20</v>
@@ -14751,7 +14748,7 @@
         <v>20</v>
       </c>
       <c r="I211" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>20</v>
@@ -14803,7 +14800,7 @@
         <v>77</v>
       </c>
       <c r="F212" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G212" s="27" t="s">
         <v>20</v>
@@ -14864,7 +14861,7 @@
         <v>58</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G213" s="27" t="s">
         <v>20</v>
@@ -14925,7 +14922,7 @@
         <v>87</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G214" s="27" t="s">
         <v>20</v>
@@ -14986,7 +14983,7 @@
         <v>87</v>
       </c>
       <c r="F215" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G215" s="27" t="s">
         <v>20</v>
@@ -15108,7 +15105,7 @@
         <v>128</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G217" s="27" t="s">
         <v>20</v>
@@ -15169,7 +15166,7 @@
         <v>119</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G218" s="27" t="s">
         <v>20</v>
@@ -15230,7 +15227,7 @@
         <v>116</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G219" s="27" t="s">
         <v>20</v>
@@ -15239,7 +15236,7 @@
         <v>20</v>
       </c>
       <c r="I219" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>20</v>
@@ -15291,7 +15288,7 @@
         <v>128</v>
       </c>
       <c r="F220" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G220" s="27" t="s">
         <v>20</v>
@@ -15352,7 +15349,7 @@
         <v>116</v>
       </c>
       <c r="F221" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G221" s="27" t="s">
         <v>20</v>
@@ -15474,7 +15471,7 @@
         <v>33</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G223" s="27" t="s">
         <v>20</v>
@@ -15483,7 +15480,7 @@
         <v>20</v>
       </c>
       <c r="I223" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>20</v>
@@ -15535,7 +15532,7 @@
         <v>87</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G224" s="27" t="s">
         <v>20</v>
@@ -15596,7 +15593,7 @@
         <v>77</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G225" s="27" t="s">
         <v>20</v>
@@ -15657,7 +15654,7 @@
         <v>58</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G226" s="27" t="s">
         <v>20</v>
@@ -15675,7 +15672,7 @@
         <v>20</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M226" s="27" t="s">
         <v>85</v>
@@ -15718,7 +15715,7 @@
         <v>91</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G227" s="27" t="s">
         <v>20</v>
@@ -15779,7 +15776,7 @@
         <v>91</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G228" s="27" t="s">
         <v>20</v>
@@ -15861,7 +15858,7 @@
         <v>116</v>
       </c>
       <c r="M229" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N229" s="27" t="s">
         <v>20</v>
@@ -15962,7 +15959,7 @@
         <v>87</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G231" s="27" t="s">
         <v>20</v>
@@ -16206,7 +16203,7 @@
         <v>77</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G235" s="27" t="s">
         <v>20</v>
@@ -16267,7 +16264,7 @@
         <v>41</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G236" s="27" t="s">
         <v>20</v>
@@ -16328,7 +16325,7 @@
         <v>91</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G237" s="27" t="s">
         <v>20</v>
@@ -16389,7 +16386,7 @@
         <v>77</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G238" s="27" t="s">
         <v>20</v>
@@ -16450,7 +16447,7 @@
         <v>49</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G239" s="27" t="s">
         <v>20</v>
@@ -16572,7 +16569,7 @@
         <v>116</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G241" s="27" t="s">
         <v>20</v>
@@ -16581,7 +16578,7 @@
         <v>20</v>
       </c>
       <c r="I241" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>20</v>
@@ -16633,7 +16630,7 @@
         <v>119</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G242" s="27" t="s">
         <v>20</v>
@@ -16776,7 +16773,7 @@
         <v>77</v>
       </c>
       <c r="M244" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N244" s="27" t="s">
         <v>20</v>
@@ -16877,7 +16874,7 @@
         <v>81</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G246" s="27" t="s">
         <v>20</v>
@@ -16938,7 +16935,7 @@
         <v>49</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G247" s="27" t="s">
         <v>20</v>
@@ -16999,7 +16996,7 @@
         <v>73</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G248" s="27" t="s">
         <v>20</v>
@@ -17060,7 +17057,7 @@
         <v>67</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G249" s="27" t="s">
         <v>20</v>
@@ -17121,7 +17118,7 @@
         <v>81</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G250" s="27" t="s">
         <v>20</v>
@@ -17182,7 +17179,7 @@
         <v>81</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G251" s="27" t="s">
         <v>20</v>
@@ -17327,7 +17324,7 @@
         <v>109</v>
       </c>
       <c r="M253" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N253" s="27" t="s">
         <v>20</v>
@@ -17486,10 +17483,10 @@
         <v>108</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G256" s="27" t="s">
         <v>20</v>
@@ -17550,7 +17547,7 @@
         <v>113</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G257" s="27" t="s">
         <v>20</v>
@@ -17611,7 +17608,7 @@
         <v>116</v>
       </c>
       <c r="F258" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G258" s="27" t="s">
         <v>20</v>
@@ -17794,7 +17791,7 @@
         <v>33</v>
       </c>
       <c r="F261" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G261" s="27" t="s">
         <v>20</v>
@@ -17855,7 +17852,7 @@
         <v>81</v>
       </c>
       <c r="F262" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G262" s="27" t="s">
         <v>20</v>
@@ -17916,7 +17913,7 @@
         <v>77</v>
       </c>
       <c r="F263" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G263" s="27" t="s">
         <v>20</v>
@@ -18038,7 +18035,7 @@
         <v>58</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G265" s="27" t="s">
         <v>20</v>
@@ -18056,7 +18053,7 @@
         <v>20</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M265" s="27" t="s">
         <v>85</v>
@@ -18099,7 +18096,7 @@
         <v>91</v>
       </c>
       <c r="F266" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G266" s="27" t="s">
         <v>20</v>
@@ -18120,7 +18117,7 @@
         <v>122</v>
       </c>
       <c r="M266" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N266" s="27" t="s">
         <v>20</v>
@@ -18221,7 +18218,7 @@
         <v>77</v>
       </c>
       <c r="F268" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G268" s="27" t="s">
         <v>20</v>
@@ -18282,7 +18279,7 @@
         <v>73</v>
       </c>
       <c r="F269" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G269" s="27" t="s">
         <v>20</v>
@@ -18343,7 +18340,7 @@
         <v>33</v>
       </c>
       <c r="F270" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G270" s="27" t="s">
         <v>20</v>
@@ -18404,7 +18401,7 @@
         <v>73</v>
       </c>
       <c r="F271" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G271" s="27" t="s">
         <v>20</v>
@@ -18465,7 +18462,7 @@
         <v>41</v>
       </c>
       <c r="F272" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G272" s="27" t="s">
         <v>20</v>
@@ -18526,7 +18523,7 @@
         <v>58</v>
       </c>
       <c r="F273" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G273" s="27" t="s">
         <v>20</v>
@@ -18544,7 +18541,7 @@
         <v>20</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M273" s="27" t="s">
         <v>85</v>
@@ -18587,7 +18584,7 @@
         <v>41</v>
       </c>
       <c r="F274" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G274" s="27" t="s">
         <v>20</v>
@@ -18788,7 +18785,7 @@
         <v>20</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M277" s="27" t="s">
         <v>107</v>
@@ -18892,7 +18889,7 @@
         <v>91</v>
       </c>
       <c r="F279" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G279" s="27" t="s">
         <v>20</v>
@@ -18953,7 +18950,7 @@
         <v>73</v>
       </c>
       <c r="F280" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G280" s="27" t="s">
         <v>20</v>
@@ -19014,7 +19011,7 @@
         <v>77</v>
       </c>
       <c r="F281" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G281" s="27" t="s">
         <v>20</v>
@@ -19075,7 +19072,7 @@
         <v>81</v>
       </c>
       <c r="F282" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G282" s="27" t="s">
         <v>20</v>
@@ -19136,7 +19133,7 @@
         <v>33</v>
       </c>
       <c r="F283" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G283" s="27" t="s">
         <v>20</v>
@@ -19197,7 +19194,7 @@
         <v>33</v>
       </c>
       <c r="F284" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G284" s="27" t="s">
         <v>20</v>
@@ -19258,7 +19255,7 @@
         <v>67</v>
       </c>
       <c r="F285" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G285" s="27" t="s">
         <v>20</v>
@@ -19340,7 +19337,7 @@
         <v>109</v>
       </c>
       <c r="M286" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N286" s="27" t="s">
         <v>20</v>
@@ -19441,7 +19438,7 @@
         <v>87</v>
       </c>
       <c r="F288" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G288" s="27" t="s">
         <v>20</v>
@@ -19504,7 +19501,7 @@
         <v>87</v>
       </c>
       <c r="F289" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G289" s="27" t="s">
         <v>20</v>
@@ -19565,7 +19562,7 @@
         <v>33</v>
       </c>
       <c r="F290" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G290" s="27" t="s">
         <v>20</v>
@@ -19626,7 +19623,7 @@
         <v>49</v>
       </c>
       <c r="F291" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G291" s="27" t="s">
         <v>20</v>
@@ -19687,7 +19684,7 @@
         <v>73</v>
       </c>
       <c r="F292" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G292" s="27" t="s">
         <v>20</v>
@@ -19748,7 +19745,7 @@
         <v>49</v>
       </c>
       <c r="F293" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G293" s="27" t="s">
         <v>20</v>
@@ -19809,7 +19806,7 @@
         <v>41</v>
       </c>
       <c r="F294" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G294" s="27" t="s">
         <v>20</v>
@@ -19870,7 +19867,7 @@
         <v>73</v>
       </c>
       <c r="F295" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G295" s="27" t="s">
         <v>20</v>
@@ -19931,7 +19928,7 @@
         <v>67</v>
       </c>
       <c r="F296" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G296" s="27" t="s">
         <v>20</v>
@@ -20010,7 +20007,7 @@
         <v>20</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M297" s="27" t="s">
         <v>85</v>
@@ -20053,7 +20050,7 @@
         <v>77</v>
       </c>
       <c r="F298" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G298" s="27" t="s">
         <v>20</v>
@@ -20114,7 +20111,7 @@
         <v>49</v>
       </c>
       <c r="F299" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G299" s="27" t="s">
         <v>20</v>
@@ -20175,7 +20172,7 @@
         <v>77</v>
       </c>
       <c r="F300" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G300" s="27" t="s">
         <v>20</v>
@@ -20236,7 +20233,7 @@
         <v>67</v>
       </c>
       <c r="F301" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G301" s="27" t="s">
         <v>20</v>
@@ -20257,7 +20254,7 @@
         <v>125</v>
       </c>
       <c r="M301" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N301" s="27" t="s">
         <v>20</v>
@@ -20358,7 +20355,7 @@
         <v>128</v>
       </c>
       <c r="F303" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G303" s="27" t="s">
         <v>20</v>
@@ -20419,7 +20416,7 @@
         <v>117</v>
       </c>
       <c r="F304" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G304" s="27" t="s">
         <v>20</v>
@@ -20480,7 +20477,7 @@
         <v>119</v>
       </c>
       <c r="F305" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G305" s="27" t="s">
         <v>20</v>
@@ -20663,7 +20660,7 @@
         <v>41</v>
       </c>
       <c r="F308" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G308" s="27" t="s">
         <v>20</v>
@@ -20724,7 +20721,7 @@
         <v>77</v>
       </c>
       <c r="F309" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G309" s="27" t="s">
         <v>20</v>
@@ -20785,7 +20782,7 @@
         <v>73</v>
       </c>
       <c r="F310" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G310" s="27" t="s">
         <v>20</v>
@@ -20846,7 +20843,7 @@
         <v>77</v>
       </c>
       <c r="F311" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G311" s="27" t="s">
         <v>20</v>
@@ -20907,7 +20904,7 @@
         <v>41</v>
       </c>
       <c r="F312" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G312" s="27" t="s">
         <v>20</v>
@@ -21029,7 +21026,7 @@
         <v>41</v>
       </c>
       <c r="F314" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G314" s="27" t="s">
         <v>20</v>
@@ -21090,7 +21087,7 @@
         <v>73</v>
       </c>
       <c r="F315" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G315" s="27" t="s">
         <v>20</v>
@@ -21151,7 +21148,7 @@
         <v>33</v>
       </c>
       <c r="F316" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G316" s="27" t="s">
         <v>20</v>
@@ -21230,10 +21227,10 @@
         <v>20</v>
       </c>
       <c r="L317" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M317" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N317" s="27" t="s">
         <v>20</v>
@@ -21334,7 +21331,7 @@
         <v>113</v>
       </c>
       <c r="F319" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G319" s="27" t="s">
         <v>20</v>
@@ -21416,7 +21413,7 @@
         <v>33</v>
       </c>
       <c r="M320" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N320" s="27" t="s">
         <v>20</v>
@@ -21517,7 +21514,7 @@
         <v>33</v>
       </c>
       <c r="F322" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G322" s="27" t="s">
         <v>20</v>
@@ -21578,7 +21575,7 @@
         <v>87</v>
       </c>
       <c r="F323" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G323" s="27" t="s">
         <v>20</v>
@@ -21639,7 +21636,7 @@
         <v>77</v>
       </c>
       <c r="F324" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G324" s="27" t="s">
         <v>20</v>
@@ -21657,7 +21654,7 @@
         <v>20</v>
       </c>
       <c r="L324" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M324" s="27" t="s">
         <v>85</v>
@@ -21700,7 +21697,7 @@
         <v>91</v>
       </c>
       <c r="F325" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G325" s="27" t="s">
         <v>20</v>
@@ -21721,7 +21718,7 @@
         <v>122</v>
       </c>
       <c r="M325" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N325" s="27" t="s">
         <v>20</v>
@@ -21822,7 +21819,7 @@
         <v>91</v>
       </c>
       <c r="F327" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G327" s="27" t="s">
         <v>20</v>
@@ -21883,7 +21880,7 @@
         <v>91</v>
       </c>
       <c r="F328" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G328" s="27" t="s">
         <v>20</v>
@@ -22005,7 +22002,7 @@
         <v>119</v>
       </c>
       <c r="F330" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G330" s="27" t="s">
         <v>20</v>
@@ -22087,7 +22084,7 @@
         <v>73</v>
       </c>
       <c r="M331" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N331" s="27" t="s">
         <v>20</v>
@@ -22127,7 +22124,7 @@
         <v>116</v>
       </c>
       <c r="F332" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G332" s="27" t="s">
         <v>20</v>
@@ -22136,7 +22133,7 @@
         <v>20</v>
       </c>
       <c r="I332" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J332" s="1" t="s">
         <v>20</v>
@@ -22188,7 +22185,7 @@
         <v>81</v>
       </c>
       <c r="F333" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G333" s="27" t="s">
         <v>20</v>
@@ -22249,7 +22246,7 @@
         <v>87</v>
       </c>
       <c r="F334" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G334" s="27" t="s">
         <v>20</v>
@@ -22310,7 +22307,7 @@
         <v>87</v>
       </c>
       <c r="F335" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G335" s="27" t="s">
         <v>20</v>
@@ -22371,7 +22368,7 @@
         <v>67</v>
       </c>
       <c r="F336" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G336" s="27" t="s">
         <v>20</v>
@@ -22493,7 +22490,7 @@
         <v>109</v>
       </c>
       <c r="F338" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G338" s="27" t="s">
         <v>20</v>
@@ -22554,7 +22551,7 @@
         <v>116</v>
       </c>
       <c r="F339" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G339" s="27" t="s">
         <v>20</v>
@@ -22676,7 +22673,7 @@
         <v>33</v>
       </c>
       <c r="F341" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G341" s="27" t="s">
         <v>20</v>
@@ -22737,7 +22734,7 @@
         <v>73</v>
       </c>
       <c r="F342" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G342" s="27" t="s">
         <v>20</v>
@@ -22798,7 +22795,7 @@
         <v>33</v>
       </c>
       <c r="F343" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G343" s="27" t="s">
         <v>20</v>
@@ -22859,7 +22856,7 @@
         <v>87</v>
       </c>
       <c r="F344" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G344" s="27" t="s">
         <v>20</v>
@@ -22981,7 +22978,7 @@
         <v>81</v>
       </c>
       <c r="F346" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G346" s="27" t="s">
         <v>20</v>
@@ -23042,7 +23039,7 @@
         <v>33</v>
       </c>
       <c r="F347" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G347" s="27" t="s">
         <v>20</v>
@@ -23103,7 +23100,7 @@
         <v>73</v>
       </c>
       <c r="F348" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G348" s="27" t="s">
         <v>20</v>
@@ -23164,7 +23161,7 @@
         <v>58</v>
       </c>
       <c r="F349" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G349" s="27" t="s">
         <v>20</v>
@@ -23225,7 +23222,7 @@
         <v>77</v>
       </c>
       <c r="F350" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G350" s="27" t="s">
         <v>20</v>
@@ -23283,10 +23280,10 @@
         <v>108</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F351" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G351" s="27" t="s">
         <v>20</v>
@@ -23347,7 +23344,7 @@
         <v>49</v>
       </c>
       <c r="F352" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G352" s="27" t="s">
         <v>20</v>
@@ -23408,7 +23405,7 @@
         <v>33</v>
       </c>
       <c r="F353" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G353" s="27" t="s">
         <v>20</v>
@@ -23469,7 +23466,7 @@
         <v>77</v>
       </c>
       <c r="F354" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G354" s="27" t="s">
         <v>20</v>
@@ -23530,7 +23527,7 @@
         <v>73</v>
       </c>
       <c r="F355" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G355" s="27" t="s">
         <v>20</v>
@@ -23591,7 +23588,7 @@
         <v>91</v>
       </c>
       <c r="F356" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G356" s="27" t="s">
         <v>20</v>
@@ -23652,7 +23649,7 @@
         <v>91</v>
       </c>
       <c r="F357" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G357" s="27" t="s">
         <v>20</v>
@@ -23713,7 +23710,7 @@
         <v>109</v>
       </c>
       <c r="F358" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G358" s="27" t="s">
         <v>20</v>
@@ -23771,7 +23768,7 @@
         <v>20</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F359" s="27" t="s">
         <v>110</v>
@@ -23896,7 +23893,7 @@
         <v>87</v>
       </c>
       <c r="F361" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G361" s="27" t="s">
         <v>20</v>
@@ -24018,7 +24015,7 @@
         <v>109</v>
       </c>
       <c r="F363" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G363" s="27" t="s">
         <v>20</v>
@@ -24222,7 +24219,7 @@
         <v>81</v>
       </c>
       <c r="M366" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N366" s="27" t="s">
         <v>20</v>
@@ -24262,7 +24259,7 @@
         <v>81</v>
       </c>
       <c r="F367" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G367" s="27" t="s">
         <v>20</v>
@@ -24323,7 +24320,7 @@
         <v>33</v>
       </c>
       <c r="F368" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G368" s="27" t="s">
         <v>20</v>
@@ -24384,7 +24381,7 @@
         <v>73</v>
       </c>
       <c r="F369" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G369" s="27" t="s">
         <v>20</v>
@@ -24445,7 +24442,7 @@
         <v>41</v>
       </c>
       <c r="F370" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G370" s="27" t="s">
         <v>20</v>
@@ -24506,7 +24503,7 @@
         <v>77</v>
       </c>
       <c r="F371" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G371" s="27" t="s">
         <v>20</v>
@@ -24567,7 +24564,7 @@
         <v>67</v>
       </c>
       <c r="F372" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G372" s="27" t="s">
         <v>20</v>
@@ -24585,7 +24582,7 @@
         <v>20</v>
       </c>
       <c r="L372" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M372" s="27" t="s">
         <v>85</v>
@@ -24628,7 +24625,7 @@
         <v>77</v>
       </c>
       <c r="F373" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G373" s="27" t="s">
         <v>20</v>
@@ -24686,7 +24683,7 @@
         <v>108</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F374" s="27" t="s">
         <v>114</v>
@@ -24747,7 +24744,7 @@
         <v>20</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F375" s="27" t="s">
         <v>107</v>
@@ -24808,7 +24805,7 @@
         <v>20</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F376" s="27" t="s">
         <v>114</v>
@@ -24869,10 +24866,10 @@
         <v>20</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F377" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G377" s="27" t="s">
         <v>20</v>
@@ -24930,10 +24927,10 @@
         <v>20</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F378" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G378" s="27" t="s">
         <v>20</v>
@@ -24994,7 +24991,7 @@
         <v>122</v>
       </c>
       <c r="F379" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G379" s="27" t="s">
         <v>20</v>
@@ -25115,10 +25112,10 @@
         <v>20</v>
       </c>
       <c r="E381" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F381" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="F381" s="27" t="s">
-        <v>165</v>
       </c>
       <c r="G381" s="27" t="s">
         <v>20</v>
@@ -25179,7 +25176,7 @@
         <v>23</v>
       </c>
       <c r="F382" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G382" s="27" t="s">
         <v>20</v>
@@ -25240,7 +25237,7 @@
         <v>49</v>
       </c>
       <c r="F383" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G383" s="27" t="s">
         <v>20</v>
@@ -25301,7 +25298,7 @@
         <v>77</v>
       </c>
       <c r="F384" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G384" s="27" t="s">
         <v>20</v>
@@ -25362,7 +25359,7 @@
         <v>41</v>
       </c>
       <c r="F385" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G385" s="27" t="s">
         <v>20</v>
@@ -25423,7 +25420,7 @@
         <v>49</v>
       </c>
       <c r="F386" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G386" s="27" t="s">
         <v>20</v>
@@ -25484,7 +25481,7 @@
         <v>91</v>
       </c>
       <c r="F387" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G387" s="27" t="s">
         <v>20</v>
@@ -25545,7 +25542,7 @@
         <v>87</v>
       </c>
       <c r="F388" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G388" s="27" t="s">
         <v>20</v>
@@ -25606,7 +25603,7 @@
         <v>91</v>
       </c>
       <c r="F389" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G389" s="27" t="s">
         <v>20</v>
@@ -25667,7 +25664,7 @@
         <v>33</v>
       </c>
       <c r="F390" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G390" s="27" t="s">
         <v>20</v>
@@ -25728,7 +25725,7 @@
         <v>73</v>
       </c>
       <c r="F391" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G391" s="27" t="s">
         <v>20</v>
@@ -25789,7 +25786,7 @@
         <v>77</v>
       </c>
       <c r="F392" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G392" s="27" t="s">
         <v>20</v>
@@ -25850,7 +25847,7 @@
         <v>58</v>
       </c>
       <c r="F393" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G393" s="27" t="s">
         <v>20</v>
@@ -25868,7 +25865,7 @@
         <v>20</v>
       </c>
       <c r="L393" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M393" s="27" t="s">
         <v>90</v>
@@ -25911,7 +25908,7 @@
         <v>67</v>
       </c>
       <c r="F394" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G394" s="27" t="s">
         <v>20</v>
@@ -25929,7 +25926,7 @@
         <v>20</v>
       </c>
       <c r="L394" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M394" s="27" t="s">
         <v>154</v>
@@ -25972,7 +25969,7 @@
         <v>67</v>
       </c>
       <c r="F395" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G395" s="27" t="s">
         <v>20</v>
@@ -26216,7 +26213,7 @@
         <v>109</v>
       </c>
       <c r="F399" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G399" s="27" t="s">
         <v>20</v>
@@ -26335,7 +26332,7 @@
         <v>20</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F401" s="27" t="s">
         <v>104</v>
@@ -26396,7 +26393,7 @@
         <v>20</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F402" s="27" t="s">
         <v>114</v>
@@ -26457,10 +26454,10 @@
         <v>20</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F403" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G403" s="27" t="s">
         <v>20</v>
@@ -26521,7 +26518,7 @@
         <v>23</v>
       </c>
       <c r="F404" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G404" s="27" t="s">
         <v>20</v>
@@ -26582,7 +26579,7 @@
         <v>41</v>
       </c>
       <c r="F405" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G405" s="27" t="s">
         <v>20</v>
@@ -26643,7 +26640,7 @@
         <v>49</v>
       </c>
       <c r="F406" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G406" s="27" t="s">
         <v>20</v>
@@ -26704,7 +26701,7 @@
         <v>77</v>
       </c>
       <c r="F407" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G407" s="27" t="s">
         <v>20</v>
@@ -26765,7 +26762,7 @@
         <v>41</v>
       </c>
       <c r="F408" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G408" s="27" t="s">
         <v>20</v>
@@ -26826,7 +26823,7 @@
         <v>73</v>
       </c>
       <c r="F409" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G409" s="27" t="s">
         <v>20</v>
@@ -26948,7 +26945,7 @@
         <v>116</v>
       </c>
       <c r="F411" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G411" s="27" t="s">
         <v>20</v>
@@ -27009,7 +27006,7 @@
         <v>77</v>
       </c>
       <c r="F412" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G412" s="27" t="s">
         <v>20</v>
@@ -27070,7 +27067,7 @@
         <v>58</v>
       </c>
       <c r="F413" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G413" s="27" t="s">
         <v>20</v>
@@ -27192,7 +27189,7 @@
         <v>109</v>
       </c>
       <c r="F415" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G415" s="27" t="s">
         <v>20</v>
@@ -27314,7 +27311,7 @@
         <v>81</v>
       </c>
       <c r="F417" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G417" s="27" t="s">
         <v>20</v>
@@ -27375,7 +27372,7 @@
         <v>87</v>
       </c>
       <c r="F418" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G418" s="27" t="s">
         <v>20</v>
@@ -27497,7 +27494,7 @@
         <v>77</v>
       </c>
       <c r="F420" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G420" s="27" t="s">
         <v>20</v>
@@ -27558,7 +27555,7 @@
         <v>116</v>
       </c>
       <c r="F421" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G421" s="27" t="s">
         <v>20</v>
@@ -27567,7 +27564,7 @@
         <v>20</v>
       </c>
       <c r="I421" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J421" s="1" t="s">
         <v>20</v>
@@ -27741,7 +27738,7 @@
         <v>81</v>
       </c>
       <c r="F424" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G424" s="27" t="s">
         <v>20</v>
@@ -27863,7 +27860,7 @@
         <v>128</v>
       </c>
       <c r="F426" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G426" s="27" t="s">
         <v>20</v>
@@ -27924,7 +27921,7 @@
         <v>128</v>
       </c>
       <c r="F427" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G427" s="27" t="s">
         <v>20</v>
@@ -28046,7 +28043,7 @@
         <v>116</v>
       </c>
       <c r="F429" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G429" s="27" t="s">
         <v>20</v>
@@ -28055,7 +28052,7 @@
         <v>20</v>
       </c>
       <c r="I429" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J429" s="1" t="s">
         <v>20</v>
@@ -28168,7 +28165,7 @@
         <v>73</v>
       </c>
       <c r="F431" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G431" s="27" t="s">
         <v>20</v>
@@ -28229,7 +28226,7 @@
         <v>91</v>
       </c>
       <c r="F432" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G432" s="27" t="s">
         <v>20</v>
@@ -28290,7 +28287,7 @@
         <v>67</v>
       </c>
       <c r="F433" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G433" s="27" t="s">
         <v>20</v>
@@ -28351,7 +28348,7 @@
         <v>77</v>
       </c>
       <c r="F434" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G434" s="27" t="s">
         <v>20</v>
@@ -28412,7 +28409,7 @@
         <v>33</v>
       </c>
       <c r="F435" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G435" s="27" t="s">
         <v>20</v>
@@ -28473,7 +28470,7 @@
         <v>77</v>
       </c>
       <c r="F436" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G436" s="27" t="s">
         <v>20</v>
@@ -28534,7 +28531,7 @@
         <v>58</v>
       </c>
       <c r="F437" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G437" s="27" t="s">
         <v>20</v>
@@ -28552,7 +28549,7 @@
         <v>20</v>
       </c>
       <c r="L437" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M437" s="27" t="s">
         <v>155</v>
@@ -28597,7 +28594,7 @@
         <v>58</v>
       </c>
       <c r="F438" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G438" s="27" t="s">
         <v>20</v>
@@ -28721,7 +28718,7 @@
         <v>109</v>
       </c>
       <c r="F440" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G440" s="27" t="s">
         <v>20</v>
@@ -29028,7 +29025,7 @@
         <v>33</v>
       </c>
       <c r="F445" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G445" s="27" t="s">
         <v>20</v>
@@ -29037,7 +29034,7 @@
         <v>20</v>
       </c>
       <c r="I445" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J445" s="1" t="s">
         <v>20</v>
@@ -29089,7 +29086,7 @@
         <v>81</v>
       </c>
       <c r="F446" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G446" s="27" t="s">
         <v>20</v>
@@ -29107,7 +29104,7 @@
         <v>20</v>
       </c>
       <c r="L446" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M446" s="27" t="s">
         <v>85</v>
@@ -29150,7 +29147,7 @@
         <v>33</v>
       </c>
       <c r="F447" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G447" s="27" t="s">
         <v>20</v>
@@ -29211,7 +29208,7 @@
         <v>77</v>
       </c>
       <c r="F448" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G448" s="27" t="s">
         <v>20</v>
@@ -29272,7 +29269,7 @@
         <v>41</v>
       </c>
       <c r="F449" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G449" s="27" t="s">
         <v>20</v>
@@ -29394,7 +29391,7 @@
         <v>77</v>
       </c>
       <c r="F451" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G451" s="27" t="s">
         <v>20</v>
@@ -29577,7 +29574,7 @@
         <v>109</v>
       </c>
       <c r="F454" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G454" s="27" t="s">
         <v>20</v>
@@ -29638,7 +29635,7 @@
         <v>131</v>
       </c>
       <c r="F455" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G455" s="27" t="s">
         <v>20</v>
@@ -29781,7 +29778,7 @@
         <v>128</v>
       </c>
       <c r="M457" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N457" s="27" t="s">
         <v>20</v>
@@ -29821,7 +29818,7 @@
         <v>128</v>
       </c>
       <c r="F458" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G458" s="27" t="s">
         <v>20</v>
@@ -29882,7 +29879,7 @@
         <v>33</v>
       </c>
       <c r="F459" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G459" s="27" t="s">
         <v>20</v>
@@ -29943,7 +29940,7 @@
         <v>81</v>
       </c>
       <c r="F460" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G460" s="27" t="s">
         <v>20</v>
@@ -30004,7 +30001,7 @@
         <v>81</v>
       </c>
       <c r="F461" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G461" s="27" t="s">
         <v>20</v>
@@ -30065,7 +30062,7 @@
         <v>87</v>
       </c>
       <c r="F462" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G462" s="27" t="s">
         <v>20</v>
@@ -30126,7 +30123,7 @@
         <v>81</v>
       </c>
       <c r="F463" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G463" s="27" t="s">
         <v>20</v>
@@ -30153,7 +30150,7 @@
         <v>20</v>
       </c>
       <c r="O463" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P463" s="27" t="s">
         <v>28</v>
@@ -30187,7 +30184,7 @@
         <v>73</v>
       </c>
       <c r="F464" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G464" s="27" t="s">
         <v>20</v>
@@ -30248,7 +30245,7 @@
         <v>67</v>
       </c>
       <c r="F465" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G465" s="27" t="s">
         <v>20</v>
@@ -30309,7 +30306,7 @@
         <v>73</v>
       </c>
       <c r="F466" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G466" s="27" t="s">
         <v>20</v>
@@ -30370,7 +30367,7 @@
         <v>33</v>
       </c>
       <c r="F467" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G467" s="27" t="s">
         <v>20</v>
@@ -30431,7 +30428,7 @@
         <v>58</v>
       </c>
       <c r="F468" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G468" s="27" t="s">
         <v>20</v>
@@ -30492,7 +30489,7 @@
         <v>91</v>
       </c>
       <c r="F469" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G469" s="27" t="s">
         <v>20</v>
@@ -30614,7 +30611,7 @@
         <v>109</v>
       </c>
       <c r="F471" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G471" s="27" t="s">
         <v>20</v>
@@ -30736,7 +30733,7 @@
         <v>122</v>
       </c>
       <c r="F473" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G473" s="27" t="s">
         <v>20</v>
@@ -30797,7 +30794,7 @@
         <v>128</v>
       </c>
       <c r="F474" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G474" s="27" t="s">
         <v>20</v>
@@ -30855,10 +30852,10 @@
         <v>20</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F475" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G475" s="27" t="s">
         <v>20</v>
@@ -30879,7 +30876,7 @@
         <v>58</v>
       </c>
       <c r="M475" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N475" s="27" t="s">
         <v>20</v>
@@ -30919,7 +30916,7 @@
         <v>122</v>
       </c>
       <c r="F476" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G476" s="27" t="s">
         <v>20</v>
@@ -30928,7 +30925,7 @@
         <v>20</v>
       </c>
       <c r="I476" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J476" s="1" t="s">
         <v>20</v>
@@ -31001,7 +30998,7 @@
         <v>77</v>
       </c>
       <c r="M477" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N477" s="27" t="s">
         <v>20</v>
@@ -31102,7 +31099,7 @@
         <v>73</v>
       </c>
       <c r="F479" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G479" s="27" t="s">
         <v>20</v>
@@ -31163,7 +31160,7 @@
         <v>41</v>
       </c>
       <c r="F480" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G480" s="27" t="s">
         <v>20</v>
@@ -31224,7 +31221,7 @@
         <v>77</v>
       </c>
       <c r="F481" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G481" s="27" t="s">
         <v>20</v>
@@ -31285,7 +31282,7 @@
         <v>41</v>
       </c>
       <c r="F482" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G482" s="27" t="s">
         <v>20</v>
@@ -31346,7 +31343,7 @@
         <v>49</v>
       </c>
       <c r="F483" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G483" s="27" t="s">
         <v>20</v>
@@ -31407,7 +31404,7 @@
         <v>41</v>
       </c>
       <c r="F484" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G484" s="27" t="s">
         <v>20</v>
@@ -31468,7 +31465,7 @@
         <v>122</v>
       </c>
       <c r="F485" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G485" s="27" t="s">
         <v>20</v>
@@ -31526,10 +31523,10 @@
         <v>20</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F486" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G486" s="27" t="s">
         <v>20</v>
@@ -31587,10 +31584,10 @@
         <v>20</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F487" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G487" s="27" t="s">
         <v>20</v>
@@ -31648,10 +31645,10 @@
         <v>20</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F488" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G488" s="27" t="s">
         <v>20</v>
@@ -31672,7 +31669,7 @@
         <v>58</v>
       </c>
       <c r="M488" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N488" s="27" t="s">
         <v>20</v>
@@ -31712,7 +31709,7 @@
         <v>58</v>
       </c>
       <c r="F489" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G489" s="27" t="s">
         <v>20</v>
@@ -31721,7 +31718,7 @@
         <v>20</v>
       </c>
       <c r="I489" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J489" s="1" t="s">
         <v>20</v>
@@ -31773,7 +31770,7 @@
         <v>41</v>
       </c>
       <c r="F490" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G490" s="27" t="s">
         <v>20</v>
@@ -31834,7 +31831,7 @@
         <v>49</v>
       </c>
       <c r="F491" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G491" s="27" t="s">
         <v>20</v>
@@ -31895,7 +31892,7 @@
         <v>73</v>
       </c>
       <c r="F492" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G492" s="27" t="s">
         <v>20</v>
@@ -31956,7 +31953,7 @@
         <v>33</v>
       </c>
       <c r="F493" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G493" s="27" t="s">
         <v>20</v>
@@ -32017,7 +32014,7 @@
         <v>73</v>
       </c>
       <c r="F494" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G494" s="27" t="s">
         <v>20</v>
@@ -32078,7 +32075,7 @@
         <v>81</v>
       </c>
       <c r="F495" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G495" s="27" t="s">
         <v>20</v>
@@ -32139,7 +32136,7 @@
         <v>116</v>
       </c>
       <c r="F496" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G496" s="27" t="s">
         <v>20</v>
@@ -32148,7 +32145,7 @@
         <v>20</v>
       </c>
       <c r="I496" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J496" s="1" t="s">
         <v>20</v>
@@ -32282,7 +32279,7 @@
         <v>81</v>
       </c>
       <c r="M498" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N498" s="27" t="s">
         <v>20</v>
@@ -32383,7 +32380,7 @@
         <v>73</v>
       </c>
       <c r="F500" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G500" s="27" t="s">
         <v>20</v>
@@ -32444,7 +32441,7 @@
         <v>77</v>
       </c>
       <c r="F501" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G501" s="27" t="s">
         <v>20</v>
@@ -32505,7 +32502,7 @@
         <v>91</v>
       </c>
       <c r="F502" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G502" s="27" t="s">
         <v>20</v>
@@ -32526,7 +32523,7 @@
         <v>122</v>
       </c>
       <c r="M502" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N502" s="27" t="s">
         <v>20</v>
@@ -32563,7 +32560,7 @@
         <v>20</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F503" s="27" t="s">
         <v>114</v>
@@ -32624,10 +32621,10 @@
         <v>20</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F504" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G504" s="27" t="s">
         <v>20</v>
@@ -32688,7 +32685,7 @@
         <v>122</v>
       </c>
       <c r="F505" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G505" s="27" t="s">
         <v>20</v>
@@ -32810,7 +32807,7 @@
         <v>41</v>
       </c>
       <c r="F507" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G507" s="27" t="s">
         <v>20</v>
@@ -32828,7 +32825,7 @@
         <v>20</v>
       </c>
       <c r="L507" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M507" s="27" t="s">
         <v>85</v>
@@ -32871,7 +32868,7 @@
         <v>58</v>
       </c>
       <c r="F508" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G508" s="27" t="s">
         <v>20</v>
@@ -32932,7 +32929,7 @@
         <v>67</v>
       </c>
       <c r="F509" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G509" s="27" t="s">
         <v>20</v>
@@ -32993,7 +32990,7 @@
         <v>77</v>
       </c>
       <c r="F510" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G510" s="27" t="s">
         <v>20</v>
@@ -33011,7 +33008,7 @@
         <v>20</v>
       </c>
       <c r="L510" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M510" s="27" t="s">
         <v>98</v>
@@ -33051,10 +33048,10 @@
         <v>108</v>
       </c>
       <c r="E511" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F511" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="F511" s="27" t="s">
-        <v>165</v>
       </c>
       <c r="G511" s="27" t="s">
         <v>20</v>
@@ -33112,10 +33109,10 @@
         <v>20</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F512" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G512" s="27" t="s">
         <v>20</v>
@@ -33237,7 +33234,7 @@
         <v>41</v>
       </c>
       <c r="F514" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G514" s="27" t="s">
         <v>20</v>
@@ -33298,7 +33295,7 @@
         <v>49</v>
       </c>
       <c r="F515" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G515" s="27" t="s">
         <v>20</v>
@@ -33359,7 +33356,7 @@
         <v>77</v>
       </c>
       <c r="F516" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G516" s="27" t="s">
         <v>20</v>
@@ -33420,7 +33417,7 @@
         <v>73</v>
       </c>
       <c r="F517" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G517" s="27" t="s">
         <v>20</v>
@@ -33481,7 +33478,7 @@
         <v>33</v>
       </c>
       <c r="F518" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G518" s="27" t="s">
         <v>20</v>
@@ -33542,7 +33539,7 @@
         <v>87</v>
       </c>
       <c r="F519" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G519" s="27" t="s">
         <v>20</v>
@@ -33603,7 +33600,7 @@
         <v>33</v>
       </c>
       <c r="F520" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G520" s="27" t="s">
         <v>20</v>
@@ -33664,7 +33661,7 @@
         <v>49</v>
       </c>
       <c r="F521" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G521" s="27" t="s">
         <v>20</v>
@@ -33725,7 +33722,7 @@
         <v>41</v>
       </c>
       <c r="F522" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G522" s="27" t="s">
         <v>20</v>
@@ -33786,7 +33783,7 @@
         <v>81</v>
       </c>
       <c r="F523" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G523" s="27" t="s">
         <v>20</v>
@@ -33847,7 +33844,7 @@
         <v>81</v>
       </c>
       <c r="F524" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G524" s="27" t="s">
         <v>20</v>
@@ -34030,7 +34027,7 @@
         <v>109</v>
       </c>
       <c r="F527" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G527" s="27" t="s">
         <v>20</v>
@@ -34088,7 +34085,7 @@
         <v>20</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F528" s="27" t="s">
         <v>110</v>
@@ -34213,7 +34210,7 @@
         <v>73</v>
       </c>
       <c r="F530" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G530" s="27" t="s">
         <v>20</v>
@@ -34457,7 +34454,7 @@
         <v>49</v>
       </c>
       <c r="F534" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G534" s="27" t="s">
         <v>20</v>
@@ -34518,7 +34515,7 @@
         <v>77</v>
       </c>
       <c r="F535" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G535" s="27" t="s">
         <v>20</v>
@@ -34579,7 +34576,7 @@
         <v>81</v>
       </c>
       <c r="F536" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G536" s="27" t="s">
         <v>20</v>
@@ -34640,7 +34637,7 @@
         <v>49</v>
       </c>
       <c r="F537" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G537" s="27" t="s">
         <v>20</v>
@@ -34701,7 +34698,7 @@
         <v>81</v>
       </c>
       <c r="F538" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G538" s="27" t="s">
         <v>20</v>
@@ -34823,7 +34820,7 @@
         <v>109</v>
       </c>
       <c r="F540" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G540" s="27" t="s">
         <v>20</v>
@@ -35006,7 +35003,7 @@
         <v>113</v>
       </c>
       <c r="F543" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G543" s="27" t="s">
         <v>20</v>
@@ -35067,7 +35064,7 @@
         <v>41</v>
       </c>
       <c r="F544" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G544" s="27" t="s">
         <v>20</v>
@@ -35128,7 +35125,7 @@
         <v>73</v>
       </c>
       <c r="F545" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G545" s="27" t="s">
         <v>20</v>
@@ -35186,10 +35183,10 @@
         <v>108</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F546" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G546" s="27" t="s">
         <v>20</v>
@@ -35310,10 +35307,10 @@
         <v>20</v>
       </c>
       <c r="E548" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F548" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="F548" s="27" t="s">
-        <v>165</v>
       </c>
       <c r="G548" s="27" t="s">
         <v>20</v>
@@ -35432,7 +35429,7 @@
         <v>20</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F550" s="27" t="s">
         <v>114</v>
@@ -35493,10 +35490,10 @@
         <v>20</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F551" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G551" s="27" t="s">
         <v>20</v>
@@ -35740,7 +35737,7 @@
         <v>81</v>
       </c>
       <c r="F555" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G555" s="27" t="s">
         <v>20</v>
@@ -35801,7 +35798,7 @@
         <v>81</v>
       </c>
       <c r="F556" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G556" s="27" t="s">
         <v>20</v>
@@ -35862,7 +35859,7 @@
         <v>33</v>
       </c>
       <c r="F557" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G557" s="27" t="s">
         <v>20</v>
@@ -35944,7 +35941,7 @@
         <v>109</v>
       </c>
       <c r="M558" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N558" s="27" t="s">
         <v>20</v>
@@ -36045,7 +36042,7 @@
         <v>109</v>
       </c>
       <c r="F560" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G560" s="27" t="s">
         <v>20</v>
@@ -36228,7 +36225,7 @@
         <v>91</v>
       </c>
       <c r="F563" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G563" s="27" t="s">
         <v>20</v>
@@ -36347,7 +36344,7 @@
         <v>108</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F565" s="27" t="s">
         <v>114</v>
@@ -36408,10 +36405,10 @@
         <v>20</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F566" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G566" s="27" t="s">
         <v>20</v>
@@ -36655,7 +36652,7 @@
         <v>81</v>
       </c>
       <c r="F570" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G570" s="27" t="s">
         <v>20</v>
@@ -36899,7 +36896,7 @@
         <v>109</v>
       </c>
       <c r="F574" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G574" s="27" t="s">
         <v>20</v>
@@ -37143,7 +37140,7 @@
         <v>91</v>
       </c>
       <c r="F578" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G578" s="27" t="s">
         <v>20</v>
@@ -37204,7 +37201,7 @@
         <v>87</v>
       </c>
       <c r="F579" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G579" s="27" t="s">
         <v>20</v>
@@ -37222,7 +37219,7 @@
         <v>20</v>
       </c>
       <c r="L579" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M579" s="27" t="s">
         <v>151</v>
@@ -37387,7 +37384,7 @@
         <v>109</v>
       </c>
       <c r="F582" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G582" s="27" t="s">
         <v>20</v>
@@ -37508,10 +37505,10 @@
         <v>20</v>
       </c>
       <c r="E584" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F584" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="F584" s="27" t="s">
-        <v>165</v>
       </c>
       <c r="G584" s="27" t="s">
         <v>20</v>
@@ -37572,7 +37569,7 @@
         <v>23</v>
       </c>
       <c r="F585" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G585" s="27" t="s">
         <v>20</v>
@@ -37633,7 +37630,7 @@
         <v>81</v>
       </c>
       <c r="F586" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G586" s="27" t="s">
         <v>20</v>
@@ -37694,7 +37691,7 @@
         <v>49</v>
       </c>
       <c r="F587" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G587" s="27" t="s">
         <v>20</v>
@@ -37755,7 +37752,7 @@
         <v>33</v>
       </c>
       <c r="F588" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G588" s="27" t="s">
         <v>20</v>
@@ -37877,7 +37874,7 @@
         <v>116</v>
       </c>
       <c r="F590" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G590" s="27" t="s">
         <v>20</v>
@@ -37935,10 +37932,10 @@
         <v>20</v>
       </c>
       <c r="E591" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F591" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="F591" s="27" t="s">
-        <v>165</v>
       </c>
       <c r="G591" s="27" t="s">
         <v>20</v>
@@ -37999,7 +37996,7 @@
         <v>116</v>
       </c>
       <c r="F592" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G592" s="27" t="s">
         <v>20</v>
@@ -38060,7 +38057,7 @@
         <v>128</v>
       </c>
       <c r="F593" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G593" s="27" t="s">
         <v>20</v>
@@ -38121,7 +38118,7 @@
         <v>128</v>
       </c>
       <c r="F594" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G594" s="27" t="s">
         <v>20</v>
@@ -38182,7 +38179,7 @@
         <v>113</v>
       </c>
       <c r="F595" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G595" s="27" t="s">
         <v>20</v>
@@ -38243,7 +38240,7 @@
         <v>122</v>
       </c>
       <c r="F596" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G596" s="27" t="s">
         <v>20</v>
@@ -38426,7 +38423,7 @@
         <v>77</v>
       </c>
       <c r="F599" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G599" s="27" t="s">
         <v>20</v>
@@ -38487,7 +38484,7 @@
         <v>49</v>
       </c>
       <c r="F600" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G600" s="27" t="s">
         <v>20</v>
@@ -38548,7 +38545,7 @@
         <v>33</v>
       </c>
       <c r="F601" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G601" s="27" t="s">
         <v>20</v>
@@ -38609,7 +38606,7 @@
         <v>49</v>
       </c>
       <c r="F602" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G602" s="27" t="s">
         <v>20</v>
@@ -38670,7 +38667,7 @@
         <v>73</v>
       </c>
       <c r="F603" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G603" s="27" t="s">
         <v>20</v>
@@ -38731,7 +38728,7 @@
         <v>73</v>
       </c>
       <c r="F604" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G604" s="27" t="s">
         <v>20</v>
@@ -38792,7 +38789,7 @@
         <v>91</v>
       </c>
       <c r="F605" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G605" s="27" t="s">
         <v>20</v>
@@ -38933,7 +38930,7 @@
         <v>109</v>
       </c>
       <c r="M607" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N607" s="27" t="s">
         <v>20</v>
@@ -38991,7 +38988,7 @@
         <v>20</v>
       </c>
       <c r="L608" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M608" s="27" t="s">
         <v>85</v>
@@ -39097,7 +39094,7 @@
         <v>33</v>
       </c>
       <c r="F610" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G610" s="27" t="s">
         <v>20</v>
@@ -39158,7 +39155,7 @@
         <v>87</v>
       </c>
       <c r="F611" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G611" s="27" t="s">
         <v>20</v>
@@ -39219,7 +39216,7 @@
         <v>73</v>
       </c>
       <c r="F612" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G612" s="27" t="s">
         <v>20</v>
@@ -39280,7 +39277,7 @@
         <v>67</v>
       </c>
       <c r="F613" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G613" s="27" t="s">
         <v>20</v>
@@ -39399,7 +39396,7 @@
         <v>108</v>
       </c>
       <c r="E615" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F615" s="27" t="s">
         <v>114</v>
@@ -39460,10 +39457,10 @@
         <v>20</v>
       </c>
       <c r="E616" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F616" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="F616" s="27" t="s">
-        <v>165</v>
       </c>
       <c r="G616" s="27" t="s">
         <v>20</v>
@@ -39585,7 +39582,7 @@
         <v>77</v>
       </c>
       <c r="F618" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G618" s="27" t="s">
         <v>20</v>
@@ -39646,7 +39643,7 @@
         <v>91</v>
       </c>
       <c r="F619" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G619" s="27" t="s">
         <v>20</v>
@@ -39707,7 +39704,7 @@
         <v>91</v>
       </c>
       <c r="F620" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G620" s="27" t="s">
         <v>20</v>
@@ -39768,7 +39765,7 @@
         <v>58</v>
       </c>
       <c r="F621" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G621" s="27" t="s">
         <v>20</v>
@@ -39829,7 +39826,7 @@
         <v>81</v>
       </c>
       <c r="F622" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G622" s="27" t="s">
         <v>20</v>
@@ -39890,7 +39887,7 @@
         <v>81</v>
       </c>
       <c r="F623" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G623" s="27" t="s">
         <v>20</v>
@@ -39951,7 +39948,7 @@
         <v>67</v>
       </c>
       <c r="F624" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G624" s="27" t="s">
         <v>20</v>
@@ -39978,7 +39975,7 @@
         <v>20</v>
       </c>
       <c r="O624" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P624" s="27" t="s">
         <v>28</v>
@@ -40012,7 +40009,7 @@
         <v>58</v>
       </c>
       <c r="F625" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G625" s="27" t="s">
         <v>20</v>
@@ -40195,7 +40192,7 @@
         <v>109</v>
       </c>
       <c r="F628" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G628" s="27" t="s">
         <v>20</v>
@@ -40463,7 +40460,7 @@
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F633" s="27" t="s">
         <v>126</v>
@@ -40501,7 +40498,7 @@
         <v>81</v>
       </c>
       <c r="F634" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G634" s="27" t="s">
         <v>20</v>
@@ -40562,7 +40559,7 @@
         <v>146</v>
       </c>
       <c r="F635" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G635" s="27" t="s">
         <v>20</v>
@@ -40623,7 +40620,7 @@
         <v>77</v>
       </c>
       <c r="F636" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G636" s="27" t="s">
         <v>20</v>
@@ -40641,7 +40638,7 @@
         <v>20</v>
       </c>
       <c r="L636" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M636" s="27" t="s">
         <v>107</v>
@@ -40745,7 +40742,7 @@
         <v>77</v>
       </c>
       <c r="F638" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G638" s="27" t="s">
         <v>20</v>
@@ -40806,7 +40803,7 @@
         <v>146</v>
       </c>
       <c r="F639" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G639" s="27" t="s">
         <v>20</v>
@@ -40989,7 +40986,7 @@
         <v>122</v>
       </c>
       <c r="F642" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G642" s="27" t="s">
         <v>20</v>
@@ -41172,7 +41169,7 @@
         <v>87</v>
       </c>
       <c r="F645" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G645" s="27" t="s">
         <v>20</v>
@@ -41190,7 +41187,7 @@
         <v>20</v>
       </c>
       <c r="L645" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M645" s="27" t="s">
         <v>90</v>
@@ -41233,7 +41230,7 @@
         <v>58</v>
       </c>
       <c r="F646" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G646" s="27" t="s">
         <v>20</v>
@@ -41355,7 +41352,7 @@
         <v>58</v>
       </c>
       <c r="F648" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G648" s="27" t="s">
         <v>20</v>
@@ -41364,7 +41361,7 @@
         <v>20</v>
       </c>
       <c r="I648" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J648" s="1" t="s">
         <v>20</v>
@@ -41416,7 +41413,7 @@
         <v>41</v>
       </c>
       <c r="F649" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G649" s="27" t="s">
         <v>20</v>
@@ -41477,7 +41474,7 @@
         <v>77</v>
       </c>
       <c r="F650" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G650" s="27" t="s">
         <v>20</v>
@@ -41538,7 +41535,7 @@
         <v>41</v>
       </c>
       <c r="F651" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G651" s="27" t="s">
         <v>20</v>
@@ -41599,7 +41596,7 @@
         <v>49</v>
       </c>
       <c r="F652" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G652" s="27" t="s">
         <v>20</v>
@@ -41660,7 +41657,7 @@
         <v>33</v>
       </c>
       <c r="F653" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G653" s="27" t="s">
         <v>20</v>
@@ -41721,7 +41718,7 @@
         <v>146</v>
       </c>
       <c r="F654" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G654" s="27" t="s">
         <v>20</v>
@@ -41782,7 +41779,7 @@
         <v>109</v>
       </c>
       <c r="F655" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G655" s="27" t="s">
         <v>20</v>
@@ -41904,7 +41901,7 @@
         <v>77</v>
       </c>
       <c r="F657" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G657" s="27" t="s">
         <v>20</v>
@@ -41965,7 +41962,7 @@
         <v>81</v>
       </c>
       <c r="F658" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G658" s="27" t="s">
         <v>20</v>
@@ -42023,10 +42020,10 @@
         <v>20</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F659" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G659" s="27" t="s">
         <v>20</v>
@@ -42087,7 +42084,7 @@
         <v>33</v>
       </c>
       <c r="F660" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G660" s="27" t="s">
         <v>20</v>
@@ -42096,7 +42093,7 @@
         <v>20</v>
       </c>
       <c r="I660" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J660" s="1" t="s">
         <v>20</v>
@@ -42148,7 +42145,7 @@
         <v>146</v>
       </c>
       <c r="F661" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G661" s="27" t="s">
         <v>20</v>
@@ -42270,7 +42267,7 @@
         <v>128</v>
       </c>
       <c r="F663" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G663" s="27" t="s">
         <v>20</v>
@@ -42331,7 +42328,7 @@
         <v>131</v>
       </c>
       <c r="F664" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G664" s="27" t="s">
         <v>20</v>
@@ -42453,7 +42450,7 @@
         <v>41</v>
       </c>
       <c r="F666" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G666" s="27" t="s">
         <v>20</v>
@@ -42514,7 +42511,7 @@
         <v>58</v>
       </c>
       <c r="F667" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G667" s="27" t="s">
         <v>20</v>
@@ -42575,7 +42572,7 @@
         <v>87</v>
       </c>
       <c r="F668" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G668" s="27" t="s">
         <v>20</v>
@@ -42636,7 +42633,7 @@
         <v>91</v>
       </c>
       <c r="F669" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G669" s="27" t="s">
         <v>20</v>
@@ -42654,7 +42651,7 @@
         <v>20</v>
       </c>
       <c r="L669" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M669" s="27" t="s">
         <v>85</v>
@@ -42758,7 +42755,7 @@
         <v>109</v>
       </c>
       <c r="F671" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G671" s="27" t="s">
         <v>20</v>
@@ -42880,7 +42877,7 @@
         <v>91</v>
       </c>
       <c r="F673" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G673" s="27" t="s">
         <v>20</v>
@@ -42941,7 +42938,7 @@
         <v>87</v>
       </c>
       <c r="F674" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G674" s="27" t="s">
         <v>20</v>
@@ -43002,7 +42999,7 @@
         <v>91</v>
       </c>
       <c r="F675" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G675" s="27" t="s">
         <v>20</v>
@@ -43063,7 +43060,7 @@
         <v>87</v>
       </c>
       <c r="F676" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G676" s="27" t="s">
         <v>20</v>
@@ -43206,7 +43203,7 @@
         <v>109</v>
       </c>
       <c r="M678" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N678" s="27" t="s">
         <v>115</v>
@@ -43307,7 +43304,7 @@
         <v>41</v>
       </c>
       <c r="F680" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G680" s="27" t="s">
         <v>20</v>
@@ -43368,7 +43365,7 @@
         <v>33</v>
       </c>
       <c r="F681" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G681" s="27" t="s">
         <v>20</v>
@@ -43429,7 +43426,7 @@
         <v>77</v>
       </c>
       <c r="F682" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G682" s="27" t="s">
         <v>20</v>
@@ -43490,7 +43487,7 @@
         <v>49</v>
       </c>
       <c r="F683" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G683" s="27" t="s">
         <v>20</v>
@@ -43551,7 +43548,7 @@
         <v>81</v>
       </c>
       <c r="F684" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G684" s="27" t="s">
         <v>20</v>
@@ -43612,7 +43609,7 @@
         <v>49</v>
       </c>
       <c r="F685" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G685" s="27" t="s">
         <v>20</v>
@@ -43673,7 +43670,7 @@
         <v>81</v>
       </c>
       <c r="F686" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G686" s="27" t="s">
         <v>20</v>
@@ -43734,7 +43731,7 @@
         <v>33</v>
       </c>
       <c r="F687" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G687" s="27" t="s">
         <v>20</v>
@@ -43743,7 +43740,7 @@
         <v>20</v>
       </c>
       <c r="I687" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J687" s="1" t="s">
         <v>20</v>
@@ -43795,7 +43792,7 @@
         <v>81</v>
       </c>
       <c r="F688" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G688" s="27" t="s">
         <v>20</v>
@@ -43856,7 +43853,7 @@
         <v>77</v>
       </c>
       <c r="F689" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G689" s="27" t="s">
         <v>20</v>
@@ -43917,7 +43914,7 @@
         <v>58</v>
       </c>
       <c r="F690" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G690" s="27" t="s">
         <v>20</v>
@@ -43935,7 +43932,7 @@
         <v>20</v>
       </c>
       <c r="L690" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M690" s="27" t="s">
         <v>98</v>
@@ -43975,10 +43972,10 @@
         <v>20</v>
       </c>
       <c r="E691" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F691" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="F691" s="27" t="s">
-        <v>165</v>
       </c>
       <c r="G691" s="27" t="s">
         <v>20</v>
@@ -44039,7 +44036,7 @@
         <v>128</v>
       </c>
       <c r="F692" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G692" s="27" t="s">
         <v>20</v>
@@ -44222,7 +44219,7 @@
         <v>41</v>
       </c>
       <c r="F695" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G695" s="27" t="s">
         <v>20</v>
@@ -44283,7 +44280,7 @@
         <v>58</v>
       </c>
       <c r="F696" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G696" s="27" t="s">
         <v>20</v>
@@ -44344,7 +44341,7 @@
         <v>91</v>
       </c>
       <c r="F697" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G697" s="27" t="s">
         <v>20</v>
@@ -44405,7 +44402,7 @@
         <v>58</v>
       </c>
       <c r="F698" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G698" s="27" t="s">
         <v>20</v>
@@ -44466,7 +44463,7 @@
         <v>67</v>
       </c>
       <c r="F699" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G699" s="27" t="s">
         <v>20</v>
@@ -44527,7 +44524,7 @@
         <v>91</v>
       </c>
       <c r="F700" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G700" s="27" t="s">
         <v>20</v>
@@ -44615,7 +44612,7 @@
         <v>115</v>
       </c>
       <c r="O701" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P701" s="27" t="s">
         <v>20</v>
@@ -44771,7 +44768,7 @@
         <v>81</v>
       </c>
       <c r="F704" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G704" s="27" t="s">
         <v>20</v>
@@ -44893,7 +44890,7 @@
         <v>33</v>
       </c>
       <c r="F706" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G706" s="27" t="s">
         <v>20</v>
@@ -44951,10 +44948,10 @@
         <v>20</v>
       </c>
       <c r="E707" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F707" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G707" s="27" t="s">
         <v>20</v>
@@ -45076,7 +45073,7 @@
         <v>128</v>
       </c>
       <c r="F709" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G709" s="27" t="s">
         <v>20</v>
@@ -45259,7 +45256,7 @@
         <v>91</v>
       </c>
       <c r="F712" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G712" s="27" t="s">
         <v>20</v>
@@ -45320,7 +45317,7 @@
         <v>58</v>
       </c>
       <c r="F713" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G713" s="27" t="s">
         <v>20</v>
@@ -45381,7 +45378,7 @@
         <v>67</v>
       </c>
       <c r="F714" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G714" s="27" t="s">
         <v>20</v>
@@ -45442,7 +45439,7 @@
         <v>91</v>
       </c>
       <c r="F715" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G715" s="27" t="s">
         <v>20</v>
@@ -45505,7 +45502,7 @@
         <v>41</v>
       </c>
       <c r="F716" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G716" s="27" t="s">
         <v>20</v>
@@ -45627,7 +45624,7 @@
         <v>77</v>
       </c>
       <c r="F718" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G718" s="27" t="s">
         <v>20</v>
@@ -45688,7 +45685,7 @@
         <v>67</v>
       </c>
       <c r="F719" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G719" s="27" t="s">
         <v>20</v>
@@ -45749,7 +45746,7 @@
         <v>91</v>
       </c>
       <c r="F720" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G720" s="27" t="s">
         <v>20</v>
@@ -45810,7 +45807,7 @@
         <v>77</v>
       </c>
       <c r="F721" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G721" s="27" t="s">
         <v>20</v>
@@ -45871,7 +45868,7 @@
         <v>81</v>
       </c>
       <c r="F722" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G722" s="27" t="s">
         <v>20</v>
@@ -45932,7 +45929,7 @@
         <v>117</v>
       </c>
       <c r="F723" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G723" s="27" t="s">
         <v>20</v>
@@ -45993,7 +45990,7 @@
         <v>128</v>
       </c>
       <c r="F724" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G724" s="27" t="s">
         <v>20</v>
@@ -46115,7 +46112,7 @@
         <v>58</v>
       </c>
       <c r="F726" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G726" s="27" t="s">
         <v>20</v>
@@ -46237,7 +46234,7 @@
         <v>49</v>
       </c>
       <c r="F728" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G728" s="27" t="s">
         <v>20</v>
@@ -46298,7 +46295,7 @@
         <v>33</v>
       </c>
       <c r="F729" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G729" s="27" t="s">
         <v>20</v>
@@ -46359,7 +46356,7 @@
         <v>49</v>
       </c>
       <c r="F730" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G730" s="27" t="s">
         <v>20</v>
@@ -46420,7 +46417,7 @@
         <v>91</v>
       </c>
       <c r="F731" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G731" s="27" t="s">
         <v>20</v>
@@ -46542,7 +46539,7 @@
         <v>122</v>
       </c>
       <c r="F733" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G733" s="27" t="s">
         <v>20</v>
@@ -46603,7 +46600,7 @@
         <v>113</v>
       </c>
       <c r="F734" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G734" s="27" t="s">
         <v>20</v>
@@ -46722,7 +46719,7 @@
         <v>20</v>
       </c>
       <c r="E736" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F736" s="27" t="s">
         <v>114</v>
@@ -46783,7 +46780,7 @@
         <v>20</v>
       </c>
       <c r="E737" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F737" s="27" t="s">
         <v>20</v>
@@ -46849,7 +46846,7 @@
         <v>58</v>
       </c>
       <c r="F738" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G738" s="27" t="s">
         <v>20</v>
@@ -46910,7 +46907,7 @@
         <v>77</v>
       </c>
       <c r="F739" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G739" s="27" t="s">
         <v>20</v>
@@ -46971,7 +46968,7 @@
         <v>58</v>
       </c>
       <c r="F740" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G740" s="27" t="s">
         <v>20</v>
@@ -47032,7 +47029,7 @@
         <v>91</v>
       </c>
       <c r="F741" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G741" s="27" t="s">
         <v>20</v>
@@ -47093,7 +47090,7 @@
         <v>87</v>
       </c>
       <c r="F742" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G742" s="27" t="s">
         <v>20</v>
@@ -47215,7 +47212,7 @@
         <v>87</v>
       </c>
       <c r="F744" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G744" s="27" t="s">
         <v>20</v>
@@ -47233,7 +47230,7 @@
         <v>20</v>
       </c>
       <c r="L744" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M744" s="27" t="s">
         <v>103</v>
@@ -47276,7 +47273,7 @@
         <v>109</v>
       </c>
       <c r="F745" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G745" s="27" t="s">
         <v>20</v>
@@ -47334,10 +47331,10 @@
         <v>20</v>
       </c>
       <c r="E746" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F746" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G746" s="27" t="s">
         <v>20</v>
@@ -47398,7 +47395,7 @@
         <v>58</v>
       </c>
       <c r="F747" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G747" s="27" t="s">
         <v>20</v>
@@ -47407,7 +47404,7 @@
         <v>20</v>
       </c>
       <c r="I747" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J747" s="1" t="s">
         <v>20</v>
@@ -47459,7 +47456,7 @@
         <v>87</v>
       </c>
       <c r="F748" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G748" s="27" t="s">
         <v>20</v>
@@ -47578,7 +47575,7 @@
         <v>20</v>
       </c>
       <c r="E750" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F750" s="27" t="s">
         <v>114</v>
@@ -47639,10 +47636,10 @@
         <v>20</v>
       </c>
       <c r="E751" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F751" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="F751" s="27" t="s">
-        <v>165</v>
       </c>
       <c r="G751" s="27" t="s">
         <v>20</v>
@@ -47703,7 +47700,7 @@
         <v>128</v>
       </c>
       <c r="F752" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G752" s="27" t="s">
         <v>20</v>
@@ -47761,10 +47758,10 @@
         <v>20</v>
       </c>
       <c r="E753" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F753" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G753" s="27" t="s">
         <v>20</v>
@@ -47886,7 +47883,7 @@
         <v>33</v>
       </c>
       <c r="F755" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G755" s="27" t="s">
         <v>20</v>
@@ -47947,7 +47944,7 @@
         <v>81</v>
       </c>
       <c r="F756" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G756" s="27" t="s">
         <v>20</v>
@@ -48148,7 +48145,7 @@
         <v>20</v>
       </c>
       <c r="L759" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M759" s="27" t="s">
         <v>94</v>
@@ -48313,7 +48310,7 @@
         <v>113</v>
       </c>
       <c r="F762" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G762" s="27" t="s">
         <v>20</v>
@@ -48432,7 +48429,7 @@
         <v>20</v>
       </c>
       <c r="E764" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F764" s="27" t="s">
         <v>114</v>
@@ -48493,10 +48490,10 @@
         <v>20</v>
       </c>
       <c r="E765" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F765" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G765" s="27" t="s">
         <v>20</v>
@@ -48557,7 +48554,7 @@
         <v>58</v>
       </c>
       <c r="F766" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G766" s="27" t="s">
         <v>20</v>
@@ -48575,7 +48572,7 @@
         <v>20</v>
       </c>
       <c r="L766" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M766" s="27" t="s">
         <v>85</v>
@@ -48618,7 +48615,7 @@
         <v>91</v>
       </c>
       <c r="F767" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G767" s="27" t="s">
         <v>20</v>
@@ -48801,7 +48798,7 @@
         <v>91</v>
       </c>
       <c r="F770" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G770" s="27" t="s">
         <v>20</v>
@@ -48862,7 +48859,7 @@
         <v>77</v>
       </c>
       <c r="F771" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G771" s="27" t="s">
         <v>20</v>
@@ -48923,7 +48920,7 @@
         <v>87</v>
       </c>
       <c r="F772" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G772" s="27" t="s">
         <v>20</v>
@@ -48941,7 +48938,7 @@
         <v>20</v>
       </c>
       <c r="L772" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M772" s="27" t="s">
         <v>90</v>
@@ -48984,7 +48981,7 @@
         <v>81</v>
       </c>
       <c r="F773" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G773" s="27" t="s">
         <v>20</v>
@@ -49106,7 +49103,7 @@
         <v>58</v>
       </c>
       <c r="F775" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G775" s="27" t="s">
         <v>20</v>
@@ -49228,7 +49225,7 @@
         <v>49</v>
       </c>
       <c r="F777" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G777" s="27" t="s">
         <v>20</v>
@@ -49289,7 +49286,7 @@
         <v>58</v>
       </c>
       <c r="F778" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G778" s="27" t="s">
         <v>20</v>
@@ -49411,7 +49408,7 @@
         <v>58</v>
       </c>
       <c r="F780" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G780" s="27" t="s">
         <v>20</v>
@@ -49490,7 +49487,7 @@
         <v>20</v>
       </c>
       <c r="L781" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M781" s="27" t="s">
         <v>94</v>
@@ -49657,7 +49654,7 @@
         <v>109</v>
       </c>
       <c r="F784" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G784" s="27" t="s">
         <v>20</v>
@@ -49715,7 +49712,7 @@
         <v>20</v>
       </c>
       <c r="E785" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F785" s="27" t="s">
         <v>104</v>
@@ -49840,7 +49837,7 @@
         <v>49</v>
       </c>
       <c r="F787" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G787" s="27" t="s">
         <v>20</v>
@@ -49858,7 +49855,7 @@
         <v>20</v>
       </c>
       <c r="L787" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M787" s="27" t="s">
         <v>94</v>
@@ -49962,7 +49959,7 @@
         <v>77</v>
       </c>
       <c r="F789" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G789" s="27" t="s">
         <v>20</v>
@@ -49980,7 +49977,7 @@
         <v>20</v>
       </c>
       <c r="L789" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M789" s="27" t="s">
         <v>90</v>
@@ -50084,7 +50081,7 @@
         <v>58</v>
       </c>
       <c r="F791" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G791" s="27" t="s">
         <v>20</v>
@@ -50102,7 +50099,7 @@
         <v>20</v>
       </c>
       <c r="L791" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M791" s="27" t="s">
         <v>85</v>
@@ -50145,7 +50142,7 @@
         <v>146</v>
       </c>
       <c r="F792" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G792" s="27" t="s">
         <v>20</v>
@@ -50163,10 +50160,10 @@
         <v>20</v>
       </c>
       <c r="L792" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M792" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N792" s="27" t="s">
         <v>20</v>
@@ -50203,7 +50200,7 @@
         <v>20</v>
       </c>
       <c r="E793" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F793" s="27" t="s">
         <v>129</v>
@@ -50264,7 +50261,7 @@
         <v>20</v>
       </c>
       <c r="E794" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F794" s="27" t="s">
         <v>126</v>
@@ -50328,7 +50325,7 @@
         <v>58</v>
       </c>
       <c r="F795" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G795" s="27" t="s">
         <v>20</v>
@@ -50450,7 +50447,7 @@
         <v>128</v>
       </c>
       <c r="F797" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G797" s="27" t="s">
         <v>20</v>
@@ -50511,7 +50508,7 @@
         <v>58</v>
       </c>
       <c r="F798" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G798" s="27" t="s">
         <v>20</v>
@@ -50520,7 +50517,7 @@
         <v>20</v>
       </c>
       <c r="I798" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J798" s="1" t="s">
         <v>20</v>
@@ -50633,7 +50630,7 @@
         <v>87</v>
       </c>
       <c r="F800" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G800" s="27" t="s">
         <v>20</v>
@@ -50694,7 +50691,7 @@
         <v>91</v>
       </c>
       <c r="F801" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G801" s="27" t="s">
         <v>20</v>
@@ -50755,7 +50752,7 @@
         <v>58</v>
       </c>
       <c r="F802" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G802" s="27" t="s">
         <v>20</v>
@@ -50816,7 +50813,7 @@
         <v>81</v>
       </c>
       <c r="F803" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G803" s="27" t="s">
         <v>20</v>
@@ -50834,7 +50831,7 @@
         <v>20</v>
       </c>
       <c r="L803" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M803" s="27" t="s">
         <v>94</v>
@@ -50895,7 +50892,7 @@
         <v>20</v>
       </c>
       <c r="L804" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M804" s="27" t="s">
         <v>90</v>
@@ -51060,7 +51057,7 @@
         <v>109</v>
       </c>
       <c r="F807" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G807" s="27" t="s">
         <v>20</v>
@@ -51118,7 +51115,7 @@
         <v>20</v>
       </c>
       <c r="E808" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F808" s="27" t="s">
         <v>110</v>
@@ -51243,7 +51240,7 @@
         <v>122</v>
       </c>
       <c r="F810" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G810" s="27" t="s">
         <v>20</v>
@@ -51301,10 +51298,10 @@
         <v>20</v>
       </c>
       <c r="E811" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F811" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G811" s="27" t="s">
         <v>20</v>
@@ -51362,10 +51359,10 @@
         <v>20</v>
       </c>
       <c r="E812" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F812" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G812" s="27" t="s">
         <v>20</v>
@@ -51548,7 +51545,7 @@
         <v>87</v>
       </c>
       <c r="F815" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G815" s="27" t="s">
         <v>20</v>
@@ -51609,7 +51606,7 @@
         <v>87</v>
       </c>
       <c r="F816" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G816" s="27" t="s">
         <v>20</v>
@@ -51688,10 +51685,10 @@
         <v>20</v>
       </c>
       <c r="L817" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M817" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N817" s="27" t="s">
         <v>20</v>
@@ -51792,7 +51789,7 @@
         <v>77</v>
       </c>
       <c r="F819" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G819" s="27" t="s">
         <v>20</v>
@@ -51853,7 +51850,7 @@
         <v>41</v>
       </c>
       <c r="F820" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G820" s="27" t="s">
         <v>20</v>
@@ -51914,7 +51911,7 @@
         <v>81</v>
       </c>
       <c r="F821" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G821" s="27" t="s">
         <v>20</v>
@@ -51975,7 +51972,7 @@
         <v>58</v>
       </c>
       <c r="F822" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G822" s="27" t="s">
         <v>20</v>
@@ -52054,10 +52051,10 @@
         <v>20</v>
       </c>
       <c r="L823" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M823" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N823" s="27" t="s">
         <v>20</v>
@@ -52158,7 +52155,7 @@
         <v>122</v>
       </c>
       <c r="F825" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G825" s="27" t="s">
         <v>20</v>
@@ -52216,10 +52213,10 @@
         <v>20</v>
       </c>
       <c r="E826" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F826" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G826" s="27" t="s">
         <v>20</v>
@@ -52277,7 +52274,7 @@
         <v>20</v>
       </c>
       <c r="E827" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F827" s="27" t="s">
         <v>20</v>
@@ -52341,7 +52338,7 @@
         <v>58</v>
       </c>
       <c r="F828" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G828" s="27" t="s">
         <v>20</v>
@@ -52350,7 +52347,7 @@
         <v>20</v>
       </c>
       <c r="I828" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J828" s="1" t="s">
         <v>20</v>
@@ -52402,7 +52399,7 @@
         <v>41</v>
       </c>
       <c r="F829" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G829" s="27" t="s">
         <v>20</v>
@@ -52463,7 +52460,7 @@
         <v>49</v>
       </c>
       <c r="F830" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G830" s="27" t="s">
         <v>20</v>
@@ -52524,7 +52521,7 @@
         <v>41</v>
       </c>
       <c r="F831" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G831" s="27" t="s">
         <v>20</v>
@@ -52585,7 +52582,7 @@
         <v>81</v>
       </c>
       <c r="F832" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G832" s="27" t="s">
         <v>20</v>
@@ -52664,7 +52661,7 @@
         <v>20</v>
       </c>
       <c r="L833" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M833" s="27" t="s">
         <v>107</v>
@@ -52707,7 +52704,7 @@
         <v>58</v>
       </c>
       <c r="F834" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G834" s="27" t="s">
         <v>20</v>
@@ -52716,7 +52713,7 @@
         <v>20</v>
       </c>
       <c r="I834" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J834" s="1" t="s">
         <v>20</v>
@@ -52829,7 +52826,7 @@
         <v>58</v>
       </c>
       <c r="F836" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G836" s="27" t="s">
         <v>20</v>
@@ -52838,7 +52835,7 @@
         <v>20</v>
       </c>
       <c r="I836" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J836" s="1" t="s">
         <v>20</v>
@@ -52890,7 +52887,7 @@
         <v>67</v>
       </c>
       <c r="F837" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G837" s="27" t="s">
         <v>20</v>
@@ -52951,7 +52948,7 @@
         <v>33</v>
       </c>
       <c r="F838" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G838" s="27" t="s">
         <v>20</v>
@@ -53012,7 +53009,7 @@
         <v>67</v>
       </c>
       <c r="F839" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G839" s="27" t="s">
         <v>20</v>
@@ -53073,7 +53070,7 @@
         <v>58</v>
       </c>
       <c r="F840" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G840" s="27" t="s">
         <v>20</v>
@@ -53152,7 +53149,7 @@
         <v>20</v>
       </c>
       <c r="L841" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M841" s="27" t="s">
         <v>85</v>
@@ -53213,7 +53210,7 @@
         <v>20</v>
       </c>
       <c r="L842" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M842" s="27" t="s">
         <v>90</v>
@@ -53256,7 +53253,7 @@
         <v>109</v>
       </c>
       <c r="F843" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G843" s="27" t="s">
         <v>20</v>
@@ -53317,7 +53314,7 @@
         <v>81</v>
       </c>
       <c r="F844" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G844" s="27" t="s">
         <v>20</v>
@@ -53399,7 +53396,7 @@
         <v>122</v>
       </c>
       <c r="M845" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N845" s="27" t="s">
         <v>20</v>
@@ -53500,7 +53497,7 @@
         <v>81</v>
       </c>
       <c r="F847" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G847" s="27" t="s">
         <v>20</v>
@@ -53561,7 +53558,7 @@
         <v>49</v>
       </c>
       <c r="F848" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G848" s="27" t="s">
         <v>20</v>
@@ -53683,7 +53680,7 @@
         <v>116</v>
       </c>
       <c r="F850" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G850" s="27" t="s">
         <v>20</v>
@@ -53692,7 +53689,7 @@
         <v>20</v>
       </c>
       <c r="I850" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J850" s="1" t="s">
         <v>20</v>
@@ -53744,7 +53741,7 @@
         <v>119</v>
       </c>
       <c r="F851" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G851" s="27" t="s">
         <v>20</v>
@@ -53802,10 +53799,10 @@
         <v>20</v>
       </c>
       <c r="E852" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F852" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G852" s="27" t="s">
         <v>20</v>
@@ -53863,10 +53860,10 @@
         <v>20</v>
       </c>
       <c r="E853" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F853" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G853" s="27" t="s">
         <v>20</v>
@@ -53988,7 +53985,7 @@
         <v>41</v>
       </c>
       <c r="F855" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G855" s="27" t="s">
         <v>20</v>
@@ -54049,7 +54046,7 @@
         <v>77</v>
       </c>
       <c r="F856" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G856" s="27" t="s">
         <v>20</v>
@@ -54110,7 +54107,7 @@
         <v>41</v>
       </c>
       <c r="F857" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G857" s="27" t="s">
         <v>20</v>
@@ -54171,7 +54168,7 @@
         <v>49</v>
       </c>
       <c r="F858" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G858" s="27" t="s">
         <v>20</v>
@@ -54232,7 +54229,7 @@
         <v>67</v>
       </c>
       <c r="F859" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G859" s="27" t="s">
         <v>20</v>
@@ -54293,7 +54290,7 @@
         <v>49</v>
       </c>
       <c r="F860" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G860" s="27" t="s">
         <v>20</v>
@@ -54415,7 +54412,7 @@
         <v>41</v>
       </c>
       <c r="F862" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G862" s="27" t="s">
         <v>20</v>
@@ -54494,7 +54491,7 @@
         <v>20</v>
       </c>
       <c r="L863" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M863" s="27" t="s">
         <v>85</v>
@@ -54537,7 +54534,7 @@
         <v>81</v>
       </c>
       <c r="F864" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G864" s="27" t="s">
         <v>20</v>
@@ -54555,7 +54552,7 @@
         <v>20</v>
       </c>
       <c r="L864" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M864" s="27" t="s">
         <v>151</v>
@@ -54598,7 +54595,7 @@
         <v>81</v>
       </c>
       <c r="F865" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G865" s="27" t="s">
         <v>20</v>
@@ -54616,7 +54613,7 @@
         <v>20</v>
       </c>
       <c r="L865" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M865" s="27" t="s">
         <v>85</v>
@@ -54778,10 +54775,10 @@
         <v>20</v>
       </c>
       <c r="E868" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F868" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G868" s="27" t="s">
         <v>20</v>
@@ -54842,7 +54839,7 @@
         <v>122</v>
       </c>
       <c r="F869" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G869" s="27" t="s">
         <v>20</v>
@@ -54964,7 +54961,7 @@
         <v>146</v>
       </c>
       <c r="F871" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G871" s="27" t="s">
         <v>20</v>
@@ -55043,7 +55040,7 @@
         <v>20</v>
       </c>
       <c r="L872" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M872" s="27" t="s">
         <v>85</v>
@@ -55107,7 +55104,7 @@
         <v>109</v>
       </c>
       <c r="M873" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N873" s="27" t="s">
         <v>115</v>
@@ -55178,7 +55175,7 @@
         <v>87</v>
       </c>
       <c r="F875" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G875" s="27" t="s">
         <v>20</v>
@@ -55239,7 +55236,7 @@
         <v>91</v>
       </c>
       <c r="F876" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G876" s="27" t="s">
         <v>20</v>
@@ -55300,7 +55297,7 @@
         <v>33</v>
       </c>
       <c r="F877" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G877" s="27" t="s">
         <v>20</v>
@@ -55318,7 +55315,7 @@
         <v>20</v>
       </c>
       <c r="L877" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M877" s="27" t="s">
         <v>85</v>
@@ -55361,7 +55358,7 @@
         <v>91</v>
       </c>
       <c r="F878" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G878" s="27" t="s">
         <v>20</v>
@@ -55379,7 +55376,7 @@
         <v>20</v>
       </c>
       <c r="L878" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M878" s="27" t="s">
         <v>90</v>
@@ -55422,7 +55419,7 @@
         <v>67</v>
       </c>
       <c r="F879" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G879" s="27" t="s">
         <v>20</v>
@@ -55483,7 +55480,7 @@
         <v>58</v>
       </c>
       <c r="F880" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G880" s="27" t="s">
         <v>20</v>
@@ -55501,7 +55498,7 @@
         <v>20</v>
       </c>
       <c r="L880" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M880" s="27" t="s">
         <v>94</v>
@@ -55626,7 +55623,7 @@
         <v>125</v>
       </c>
       <c r="M882" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N882" s="27" t="s">
         <v>20</v>
@@ -55748,7 +55745,7 @@
         <v>109</v>
       </c>
       <c r="M884" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N884" s="27" t="s">
         <v>115</v>
@@ -55846,10 +55843,10 @@
         <v>20</v>
       </c>
       <c r="E886" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F886" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G886" s="27" t="s">
         <v>20</v>
@@ -55907,10 +55904,10 @@
         <v>20</v>
       </c>
       <c r="E887" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F887" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G887" s="27" t="s">
         <v>20</v>
@@ -55971,7 +55968,7 @@
         <v>116</v>
       </c>
       <c r="F888" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G888" s="27" t="s">
         <v>20</v>
@@ -56029,10 +56026,10 @@
         <v>20</v>
       </c>
       <c r="E889" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F889" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G889" s="27" t="s">
         <v>20</v>
@@ -56151,10 +56148,10 @@
         <v>20</v>
       </c>
       <c r="E891" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F891" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G891" s="27" t="s">
         <v>20</v>
@@ -56215,7 +56212,7 @@
         <v>113</v>
       </c>
       <c r="F892" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G892" s="27" t="s">
         <v>20</v>
@@ -56276,7 +56273,7 @@
         <v>122</v>
       </c>
       <c r="F893" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G893" s="27" t="s">
         <v>20</v>
@@ -56395,10 +56392,10 @@
         <v>20</v>
       </c>
       <c r="E895" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F895" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G895" s="27" t="s">
         <v>20</v>
@@ -56520,7 +56517,7 @@
         <v>23</v>
       </c>
       <c r="F897" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G897" s="27" t="s">
         <v>20</v>
@@ -56581,7 +56578,7 @@
         <v>49</v>
       </c>
       <c r="F898" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G898" s="27" t="s">
         <v>20</v>
@@ -56642,7 +56639,7 @@
         <v>33</v>
       </c>
       <c r="F899" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G899" s="27" t="s">
         <v>20</v>
@@ -56886,7 +56883,7 @@
         <v>116</v>
       </c>
       <c r="F903" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G903" s="27" t="s">
         <v>20</v>
@@ -56944,10 +56941,10 @@
         <v>20</v>
       </c>
       <c r="E904" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F904" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="F904" s="27" t="s">
-        <v>165</v>
       </c>
       <c r="G904" s="27" t="s">
         <v>20</v>
@@ -57005,10 +57002,10 @@
         <v>20</v>
       </c>
       <c r="E905" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F905" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G905" s="27" t="s">
         <v>20</v>
@@ -57130,7 +57127,7 @@
         <v>116</v>
       </c>
       <c r="F907" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G907" s="27" t="s">
         <v>20</v>
@@ -57139,7 +57136,7 @@
         <v>20</v>
       </c>
       <c r="I907" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J907" s="1" t="s">
         <v>20</v>
@@ -57188,10 +57185,10 @@
         <v>20</v>
       </c>
       <c r="E908" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F908" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G908" s="27" t="s">
         <v>20</v>
@@ -57252,7 +57249,7 @@
         <v>116</v>
       </c>
       <c r="F909" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G909" s="27" t="s">
         <v>20</v>
@@ -57310,10 +57307,10 @@
         <v>20</v>
       </c>
       <c r="E910" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F910" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G910" s="27" t="s">
         <v>20</v>
@@ -57374,7 +57371,7 @@
         <v>128</v>
       </c>
       <c r="F911" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G911" s="27" t="s">
         <v>20</v>
@@ -57557,7 +57554,7 @@
         <v>58</v>
       </c>
       <c r="F914" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G914" s="27" t="s">
         <v>20</v>
@@ -57618,7 +57615,7 @@
         <v>77</v>
       </c>
       <c r="F915" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G915" s="27" t="s">
         <v>20</v>
@@ -57740,7 +57737,7 @@
         <v>23</v>
       </c>
       <c r="F917" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G917" s="27" t="s">
         <v>20</v>
@@ -57801,7 +57798,7 @@
         <v>77</v>
       </c>
       <c r="F918" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G918" s="27" t="s">
         <v>20</v>
@@ -57862,7 +57859,7 @@
         <v>81</v>
       </c>
       <c r="F919" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G919" s="27" t="s">
         <v>20</v>
@@ -57923,7 +57920,7 @@
         <v>67</v>
       </c>
       <c r="F920" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G920" s="27" t="s">
         <v>20</v>
@@ -57984,7 +57981,7 @@
         <v>81</v>
       </c>
       <c r="F921" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G921" s="27" t="s">
         <v>20</v>
@@ -58045,7 +58042,7 @@
         <v>41</v>
       </c>
       <c r="F922" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G922" s="27" t="s">
         <v>20</v>
@@ -58106,7 +58103,7 @@
         <v>87</v>
       </c>
       <c r="F923" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G923" s="27" t="s">
         <v>20</v>
@@ -58228,7 +58225,7 @@
         <v>122</v>
       </c>
       <c r="F925" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G925" s="27" t="s">
         <v>20</v>
@@ -58237,7 +58234,7 @@
         <v>20</v>
       </c>
       <c r="I925" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J925" s="1" t="s">
         <v>20</v>
@@ -58286,7 +58283,7 @@
         <v>20</v>
       </c>
       <c r="E926" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F926" s="27" t="s">
         <v>110</v>
@@ -58350,7 +58347,7 @@
         <v>122</v>
       </c>
       <c r="F927" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G927" s="27" t="s">
         <v>20</v>
@@ -58359,7 +58356,7 @@
         <v>20</v>
       </c>
       <c r="I927" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J927" s="1" t="s">
         <v>20</v>
@@ -58469,7 +58466,7 @@
         <v>20</v>
       </c>
       <c r="E929" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F929" s="27" t="s">
         <v>114</v>
@@ -58530,10 +58527,10 @@
         <v>20</v>
       </c>
       <c r="E930" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F930" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G930" s="27" t="s">
         <v>20</v>
@@ -58676,7 +58673,7 @@
         <v>77</v>
       </c>
       <c r="M932" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N932" s="27" t="s">
         <v>20</v>
@@ -58716,7 +58713,7 @@
         <v>77</v>
       </c>
       <c r="F933" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G933" s="27" t="s">
         <v>20</v>
@@ -58777,7 +58774,7 @@
         <v>146</v>
       </c>
       <c r="F934" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G934" s="27" t="s">
         <v>20</v>
@@ -58795,7 +58792,7 @@
         <v>20</v>
       </c>
       <c r="L934" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M934" s="27" t="s">
         <v>90</v>
@@ -58899,7 +58896,7 @@
         <v>91</v>
       </c>
       <c r="F936" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G936" s="27" t="s">
         <v>20</v>
@@ -59021,7 +59018,7 @@
         <v>58</v>
       </c>
       <c r="F938" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G938" s="27" t="s">
         <v>20</v>
@@ -59082,7 +59079,7 @@
         <v>58</v>
       </c>
       <c r="F939" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G939" s="27" t="s">
         <v>20</v>
@@ -59143,7 +59140,7 @@
         <v>49</v>
       </c>
       <c r="F940" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G940" s="27" t="s">
         <v>20</v>
@@ -59283,7 +59280,7 @@
         <v>20</v>
       </c>
       <c r="L942" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M942" s="27" t="s">
         <v>107</v>
@@ -59326,7 +59323,7 @@
         <v>58</v>
       </c>
       <c r="F943" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G943" s="27" t="s">
         <v>20</v>
@@ -59509,7 +59506,7 @@
         <v>77</v>
       </c>
       <c r="F946" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G946" s="27" t="s">
         <v>20</v>
@@ -59527,7 +59524,7 @@
         <v>20</v>
       </c>
       <c r="L946" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M946" s="27" t="s">
         <v>90</v>
@@ -59570,7 +59567,7 @@
         <v>41</v>
       </c>
       <c r="F947" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G947" s="27" t="s">
         <v>20</v>
@@ -59631,7 +59628,7 @@
         <v>77</v>
       </c>
       <c r="F948" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G948" s="27" t="s">
         <v>20</v>
@@ -59692,7 +59689,7 @@
         <v>67</v>
       </c>
       <c r="F949" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G949" s="27" t="s">
         <v>20</v>
@@ -59936,7 +59933,7 @@
         <v>128</v>
       </c>
       <c r="F953" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G953" s="27" t="s">
         <v>20</v>
@@ -59994,10 +59991,10 @@
         <v>20</v>
       </c>
       <c r="E954" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F954" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G954" s="27" t="s">
         <v>20</v>
@@ -60058,7 +60055,7 @@
         <v>131</v>
       </c>
       <c r="F955" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G955" s="27" t="s">
         <v>20</v>
@@ -60180,7 +60177,7 @@
         <v>23</v>
       </c>
       <c r="F957" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G957" s="27" t="s">
         <v>20</v>
@@ -60241,7 +60238,7 @@
         <v>49</v>
       </c>
       <c r="F958" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G958" s="27" t="s">
         <v>20</v>
@@ -60302,7 +60299,7 @@
         <v>77</v>
       </c>
       <c r="F959" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G959" s="27" t="s">
         <v>20</v>
@@ -60363,7 +60360,7 @@
         <v>81</v>
       </c>
       <c r="F960" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G960" s="27" t="s">
         <v>20</v>
@@ -60546,7 +60543,7 @@
         <v>122</v>
       </c>
       <c r="F963" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G963" s="27" t="s">
         <v>20</v>
@@ -60668,7 +60665,7 @@
         <v>122</v>
       </c>
       <c r="F965" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G965" s="27" t="s">
         <v>20</v>
@@ -60726,10 +60723,10 @@
         <v>20</v>
       </c>
       <c r="E966" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F966" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G966" s="27" t="s">
         <v>20</v>
@@ -60787,10 +60784,10 @@
         <v>20</v>
       </c>
       <c r="E967" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F967" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G967" s="27" t="s">
         <v>20</v>
@@ -60851,7 +60848,7 @@
         <v>122</v>
       </c>
       <c r="F968" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G968" s="27" t="s">
         <v>20</v>
@@ -60912,7 +60909,7 @@
         <v>147</v>
       </c>
       <c r="F969" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G969" s="27" t="s">
         <v>20</v>
@@ -60921,7 +60918,7 @@
         <v>20</v>
       </c>
       <c r="I969" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J969" s="1" t="s">
         <v>20</v>
@@ -60973,7 +60970,7 @@
         <v>58</v>
       </c>
       <c r="F970" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G970" s="27" t="s">
         <v>20</v>
@@ -61052,7 +61049,7 @@
         <v>20</v>
       </c>
       <c r="L971" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M971" s="27" t="s">
         <v>85</v>
@@ -61113,7 +61110,7 @@
         <v>20</v>
       </c>
       <c r="L972" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M972" s="27" t="s">
         <v>107</v>
@@ -61156,7 +61153,7 @@
         <v>58</v>
       </c>
       <c r="F973" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G973" s="27" t="s">
         <v>20</v>
@@ -61278,7 +61275,7 @@
         <v>109</v>
       </c>
       <c r="F975" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G975" s="27" t="s">
         <v>149</v>
@@ -61397,7 +61394,7 @@
         <v>20</v>
       </c>
       <c r="E977" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F977" s="27" t="s">
         <v>104</v>
@@ -61458,7 +61455,7 @@
         <v>20</v>
       </c>
       <c r="E978" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F978" s="27" t="s">
         <v>114</v>
@@ -61519,10 +61516,10 @@
         <v>20</v>
       </c>
       <c r="E979" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F979" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G979" s="27" t="s">
         <v>20</v>
@@ -61644,7 +61641,7 @@
         <v>77</v>
       </c>
       <c r="F981" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G981" s="27" t="s">
         <v>20</v>
@@ -61705,7 +61702,7 @@
         <v>91</v>
       </c>
       <c r="F982" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G982" s="27" t="s">
         <v>20</v>
@@ -61827,7 +61824,7 @@
         <v>109</v>
       </c>
       <c r="F984" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G984" s="27" t="s">
         <v>20</v>
@@ -61949,7 +61946,7 @@
         <v>33</v>
       </c>
       <c r="F986" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G986" s="27" t="s">
         <v>20</v>
@@ -62010,7 +62007,7 @@
         <v>116</v>
       </c>
       <c r="F987" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G987" s="27" t="s">
         <v>20</v>
@@ -62019,7 +62016,7 @@
         <v>20</v>
       </c>
       <c r="I987" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J987" s="1" t="s">
         <v>20</v>
@@ -62192,7 +62189,7 @@
         <v>20</v>
       </c>
       <c r="E990" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F990" s="27" t="s">
         <v>126</v>
@@ -62256,7 +62253,7 @@
         <v>122</v>
       </c>
       <c r="F991" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G991" s="27" t="s">
         <v>20</v>
@@ -62375,7 +62372,7 @@
         <v>20</v>
       </c>
       <c r="E993" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F993" s="27" t="s">
         <v>114</v>
@@ -62436,10 +62433,10 @@
         <v>20</v>
       </c>
       <c r="E994" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F994" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G994" s="27" t="s">
         <v>20</v>
@@ -62497,10 +62494,10 @@
         <v>20</v>
       </c>
       <c r="E995" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F995" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G995" s="27" t="s">
         <v>20</v>
@@ -62561,7 +62558,7 @@
         <v>122</v>
       </c>
       <c r="F996" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G996" s="27" t="s">
         <v>20</v>
@@ -62683,7 +62680,7 @@
         <v>33</v>
       </c>
       <c r="F998" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G998" s="27" t="s">
         <v>20</v>
@@ -62744,7 +62741,7 @@
         <v>77</v>
       </c>
       <c r="F999" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G999" s="27" t="s">
         <v>20</v>
@@ -62805,7 +62802,7 @@
         <v>49</v>
       </c>
       <c r="F1000" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1000" s="27" t="s">
         <v>20</v>
@@ -62866,7 +62863,7 @@
         <v>147</v>
       </c>
       <c r="F1001" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1001" s="27" t="s">
         <v>20</v>
@@ -62927,7 +62924,7 @@
         <v>33</v>
       </c>
       <c r="F1002" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1002" s="27" t="s">
         <v>20</v>
@@ -62988,7 +62985,7 @@
         <v>87</v>
       </c>
       <c r="F1003" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1003" s="27" t="s">
         <v>20</v>
@@ -63006,7 +63003,7 @@
         <v>20</v>
       </c>
       <c r="L1003" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M1003" s="27" t="s">
         <v>90</v>
@@ -63070,7 +63067,7 @@
         <v>109</v>
       </c>
       <c r="M1004" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N1004" s="27" t="s">
         <v>115</v>
@@ -63110,7 +63107,7 @@
         <v>109</v>
       </c>
       <c r="F1005" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1005" s="27" t="s">
         <v>20</v>
@@ -63293,7 +63290,7 @@
         <v>23</v>
       </c>
       <c r="F1008" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1008" s="27" t="s">
         <v>20</v>
@@ -63354,7 +63351,7 @@
         <v>41</v>
       </c>
       <c r="F1009" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1009" s="27" t="s">
         <v>20</v>
@@ -63415,7 +63412,7 @@
         <v>49</v>
       </c>
       <c r="F1010" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1010" s="27" t="s">
         <v>20</v>
@@ -63476,7 +63473,7 @@
         <v>91</v>
       </c>
       <c r="F1011" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1011" s="27" t="s">
         <v>20</v>
@@ -63537,7 +63534,7 @@
         <v>49</v>
       </c>
       <c r="F1012" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1012" s="27" t="s">
         <v>20</v>
@@ -63659,7 +63656,7 @@
         <v>77</v>
       </c>
       <c r="F1014" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1014" s="27" t="s">
         <v>20</v>
@@ -63677,7 +63674,7 @@
         <v>20</v>
       </c>
       <c r="L1014" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M1014" s="27" t="s">
         <v>94</v>
@@ -63720,7 +63717,7 @@
         <v>58</v>
       </c>
       <c r="F1015" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1015" s="27" t="s">
         <v>20</v>
@@ -63802,7 +63799,7 @@
         <v>109</v>
       </c>
       <c r="M1016" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N1016" s="27" t="s">
         <v>115</v>
@@ -63903,7 +63900,7 @@
         <v>109</v>
       </c>
       <c r="F1018" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1018" s="27" t="s">
         <v>20</v>
@@ -64025,7 +64022,7 @@
         <v>41</v>
       </c>
       <c r="F1020" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1020" s="27" t="s">
         <v>20</v>
@@ -64086,7 +64083,7 @@
         <v>77</v>
       </c>
       <c r="F1021" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1021" s="27" t="s">
         <v>20</v>
@@ -64147,7 +64144,7 @@
         <v>91</v>
       </c>
       <c r="F1022" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1022" s="27" t="s">
         <v>20</v>
@@ -64208,7 +64205,7 @@
         <v>77</v>
       </c>
       <c r="F1023" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1023" s="27" t="s">
         <v>20</v>
@@ -64269,7 +64266,7 @@
         <v>87</v>
       </c>
       <c r="F1024" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1024" s="27" t="s">
         <v>20</v>
@@ -64330,7 +64327,7 @@
         <v>33</v>
       </c>
       <c r="F1025" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1025" s="27" t="s">
         <v>20</v>
@@ -64452,7 +64449,7 @@
         <v>128</v>
       </c>
       <c r="F1027" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1027" s="27" t="s">
         <v>20</v>
@@ -64513,7 +64510,7 @@
         <v>116</v>
       </c>
       <c r="F1028" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1028" s="27" t="s">
         <v>20</v>
@@ -64574,7 +64571,7 @@
         <v>113</v>
       </c>
       <c r="F1029" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1029" s="27" t="s">
         <v>20</v>
@@ -64635,7 +64632,7 @@
         <v>49</v>
       </c>
       <c r="F1030" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1030" s="27" t="s">
         <v>20</v>
@@ -64696,7 +64693,7 @@
         <v>41</v>
       </c>
       <c r="F1031" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1031" s="27" t="s">
         <v>20</v>
@@ -64757,7 +64754,7 @@
         <v>67</v>
       </c>
       <c r="F1032" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1032" s="27" t="s">
         <v>20</v>
@@ -64818,7 +64815,7 @@
         <v>58</v>
       </c>
       <c r="F1033" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1033" s="27" t="s">
         <v>20</v>
@@ -64836,7 +64833,7 @@
         <v>20</v>
       </c>
       <c r="L1033" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M1033" s="27" t="s">
         <v>85</v>
@@ -64879,7 +64876,7 @@
         <v>41</v>
       </c>
       <c r="F1034" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1034" s="27" t="s">
         <v>20</v>
@@ -65062,7 +65059,7 @@
         <v>147</v>
       </c>
       <c r="F1037" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1037" s="27" t="s">
         <v>20</v>
@@ -65071,7 +65068,7 @@
         <v>20</v>
       </c>
       <c r="I1037" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J1037" s="1" t="s">
         <v>20</v>
@@ -65123,7 +65120,7 @@
         <v>77</v>
       </c>
       <c r="F1038" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1038" s="27" t="s">
         <v>20</v>
@@ -65184,7 +65181,7 @@
         <v>147</v>
       </c>
       <c r="F1039" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1039" s="27" t="s">
         <v>20</v>
@@ -65245,7 +65242,7 @@
         <v>58</v>
       </c>
       <c r="F1040" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1040" s="27" t="s">
         <v>20</v>
@@ -65306,7 +65303,7 @@
         <v>109</v>
       </c>
       <c r="F1041" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1041" s="27" t="s">
         <v>20</v>
@@ -65364,7 +65361,7 @@
         <v>20</v>
       </c>
       <c r="E1042" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F1042" s="27" t="s">
         <v>100</v>
@@ -65428,7 +65425,7 @@
         <v>33</v>
       </c>
       <c r="F1043" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1043" s="27" t="s">
         <v>20</v>
@@ -65437,7 +65434,7 @@
         <v>20</v>
       </c>
       <c r="I1043" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J1043" s="1" t="s">
         <v>20</v>
@@ -65489,7 +65486,7 @@
         <v>49</v>
       </c>
       <c r="F1044" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1044" s="27" t="s">
         <v>20</v>
@@ -65550,7 +65547,7 @@
         <v>33</v>
       </c>
       <c r="F1045" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1045" s="27" t="s">
         <v>20</v>
@@ -65611,7 +65608,7 @@
         <v>49</v>
       </c>
       <c r="F1046" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1046" s="27" t="s">
         <v>20</v>
@@ -65672,7 +65669,7 @@
         <v>77</v>
       </c>
       <c r="F1047" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1047" s="27" t="s">
         <v>20</v>
@@ -65733,7 +65730,7 @@
         <v>147</v>
       </c>
       <c r="F1048" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1048" s="27" t="s">
         <v>20</v>
@@ -65794,7 +65791,7 @@
         <v>109</v>
       </c>
       <c r="F1049" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1049" s="27" t="s">
         <v>20</v>
@@ -65977,7 +65974,7 @@
         <v>148</v>
       </c>
       <c r="F1052" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1052" s="27" t="s">
         <v>20</v>
@@ -66038,7 +66035,7 @@
         <v>49</v>
       </c>
       <c r="F1053" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1053" s="27" t="s">
         <v>20</v>
@@ -66160,7 +66157,7 @@
         <v>148</v>
       </c>
       <c r="F1055" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1055" s="27" t="s">
         <v>20</v>
@@ -66221,7 +66218,7 @@
         <v>87</v>
       </c>
       <c r="F1056" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1056" s="27" t="s">
         <v>20</v>
@@ -66282,7 +66279,7 @@
         <v>91</v>
       </c>
       <c r="F1057" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1057" s="27" t="s">
         <v>20</v>
@@ -66300,7 +66297,7 @@
         <v>20</v>
       </c>
       <c r="L1057" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M1057" s="27" t="s">
         <v>85</v>
@@ -66343,7 +66340,7 @@
         <v>148</v>
       </c>
       <c r="F1058" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1058" s="27" t="s">
         <v>20</v>
@@ -66404,7 +66401,7 @@
         <v>41</v>
       </c>
       <c r="F1059" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1059" s="27" t="s">
         <v>20</v>
@@ -66465,7 +66462,7 @@
         <v>58</v>
       </c>
       <c r="F1060" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1060" s="27" t="s">
         <v>20</v>
@@ -66526,7 +66523,7 @@
         <v>147</v>
       </c>
       <c r="F1061" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G1061" s="27" t="s">
         <v>20</v>
@@ -66544,10 +66541,10 @@
         <v>20</v>
       </c>
       <c r="L1061" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M1061" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N1061" s="27" t="s">
         <v>20</v>
@@ -66648,7 +66645,7 @@
         <v>58</v>
       </c>
       <c r="F1063" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1063" s="27" t="s">
         <v>20</v>
@@ -66666,7 +66663,7 @@
         <v>20</v>
       </c>
       <c r="L1063" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M1063" s="27" t="s">
         <v>94</v>
@@ -66770,7 +66767,7 @@
         <v>109</v>
       </c>
       <c r="F1065" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1065" s="27" t="s">
         <v>20</v>
@@ -66828,7 +66825,7 @@
         <v>20</v>
       </c>
       <c r="E1066" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F1066" s="27" t="s">
         <v>110</v>
@@ -66889,7 +66886,7 @@
         <v>20</v>
       </c>
       <c r="E1067" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F1067" s="27" t="s">
         <v>104</v>
@@ -67077,7 +67074,7 @@
         <v>122</v>
       </c>
       <c r="F1070" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1070" s="27" t="s">
         <v>20</v>
@@ -67257,7 +67254,7 @@
         <v>20</v>
       </c>
       <c r="E1073" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F1073" s="27" t="s">
         <v>114</v>
@@ -67318,10 +67315,10 @@
         <v>20</v>
       </c>
       <c r="E1074" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F1074" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G1074" s="27" t="s">
         <v>20</v>
@@ -67342,7 +67339,7 @@
         <v>148</v>
       </c>
       <c r="M1074" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N1074" s="27" t="s">
         <v>20</v>
@@ -67443,7 +67440,7 @@
         <v>91</v>
       </c>
       <c r="F1076" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1076" s="27" t="s">
         <v>20</v>
@@ -67504,7 +67501,7 @@
         <v>33</v>
       </c>
       <c r="F1077" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1077" s="27" t="s">
         <v>20</v>
@@ -67565,7 +67562,7 @@
         <v>148</v>
       </c>
       <c r="F1078" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1078" s="27" t="s">
         <v>20</v>
@@ -67626,7 +67623,7 @@
         <v>77</v>
       </c>
       <c r="F1079" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1079" s="27" t="s">
         <v>20</v>
@@ -67687,7 +67684,7 @@
         <v>41</v>
       </c>
       <c r="F1080" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1080" s="27" t="s">
         <v>20</v>
@@ -67748,7 +67745,7 @@
         <v>122</v>
       </c>
       <c r="F1081" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1081" s="27" t="s">
         <v>20</v>
@@ -67929,7 +67926,7 @@
         <v>41</v>
       </c>
       <c r="F1084" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1084" s="27" t="s">
         <v>20</v>
@@ -67990,7 +67987,7 @@
         <v>49</v>
       </c>
       <c r="F1085" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1085" s="27" t="s">
         <v>20</v>
@@ -68051,7 +68048,7 @@
         <v>148</v>
       </c>
       <c r="F1086" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G1086" s="27" t="s">
         <v>20</v>
@@ -68069,7 +68066,7 @@
         <v>20</v>
       </c>
       <c r="L1086" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M1086" s="27" t="s">
         <v>154</v>
@@ -68173,7 +68170,7 @@
         <v>148</v>
       </c>
       <c r="F1088" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1088" s="27" t="s">
         <v>20</v>
@@ -68234,7 +68231,7 @@
         <v>91</v>
       </c>
       <c r="F1089" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G1089" s="27" t="s">
         <v>20</v>
@@ -68252,7 +68249,7 @@
         <v>20</v>
       </c>
       <c r="L1089" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M1089" s="27" t="s">
         <v>155</v>
@@ -68356,7 +68353,7 @@
         <v>91</v>
       </c>
       <c r="F1091" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1091" s="27" t="s">
         <v>20</v>
@@ -68417,7 +68414,7 @@
         <v>77</v>
       </c>
       <c r="F1092" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G1092" s="27" t="s">
         <v>20</v>
@@ -68600,7 +68597,7 @@
         <v>109</v>
       </c>
       <c r="F1095" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1095" s="27" t="s">
         <v>20</v>
@@ -68658,7 +68655,7 @@
         <v>20</v>
       </c>
       <c r="E1096" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F1096" s="27" t="s">
         <v>110</v>
@@ -68719,7 +68716,7 @@
         <v>20</v>
       </c>
       <c r="E1097" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F1097" s="27" t="s">
         <v>100</v>
@@ -68783,7 +68780,7 @@
         <v>147</v>
       </c>
       <c r="F1098" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1098" s="27" t="s">
         <v>20</v>
@@ -68792,7 +68789,7 @@
         <v>20</v>
       </c>
       <c r="I1098" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J1098" s="1" t="s">
         <v>20</v>
@@ -68844,7 +68841,7 @@
         <v>87</v>
       </c>
       <c r="F1099" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1099" s="27" t="s">
         <v>20</v>
@@ -68905,7 +68902,7 @@
         <v>147</v>
       </c>
       <c r="F1100" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1100" s="27" t="s">
         <v>20</v>
@@ -68966,7 +68963,7 @@
         <v>146</v>
       </c>
       <c r="F1101" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1101" s="27" t="s">
         <v>20</v>
@@ -69027,7 +69024,7 @@
         <v>87</v>
       </c>
       <c r="F1102" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1102" s="27" t="s">
         <v>20</v>
@@ -69088,7 +69085,7 @@
         <v>148</v>
       </c>
       <c r="F1103" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1103" s="27" t="s">
         <v>20</v>
@@ -69207,10 +69204,10 @@
         <v>20</v>
       </c>
       <c r="E1105" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F1105" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1105" s="27" t="s">
         <v>20</v>
@@ -69219,7 +69216,7 @@
         <v>20</v>
       </c>
       <c r="I1105" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J1105" s="1" t="s">
         <v>20</v>
@@ -69268,7 +69265,7 @@
         <v>20</v>
       </c>
       <c r="E1106" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F1106" s="27" t="s">
         <v>100</v>
@@ -69332,7 +69329,7 @@
         <v>147</v>
       </c>
       <c r="F1107" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1107" s="27" t="s">
         <v>20</v>
@@ -69341,7 +69338,7 @@
         <v>20</v>
       </c>
       <c r="I1107" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J1107" s="1" t="s">
         <v>20</v>
@@ -69393,7 +69390,7 @@
         <v>146</v>
       </c>
       <c r="F1108" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1108" s="27" t="s">
         <v>20</v>
@@ -69515,7 +69512,7 @@
         <v>109</v>
       </c>
       <c r="F1110" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1110" s="27" t="s">
         <v>20</v>
@@ -69637,7 +69634,7 @@
         <v>116</v>
       </c>
       <c r="F1112" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1112" s="27" t="s">
         <v>20</v>
@@ -69756,10 +69753,10 @@
         <v>20</v>
       </c>
       <c r="E1114" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F1114" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1114" s="27" t="s">
         <v>20</v>
@@ -69768,7 +69765,7 @@
         <v>20</v>
       </c>
       <c r="I1114" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J1114" s="1" t="s">
         <v>20</v>
@@ -69820,7 +69817,7 @@
         <v>91</v>
       </c>
       <c r="F1115" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1115" s="27" t="s">
         <v>20</v>
@@ -69942,7 +69939,7 @@
         <v>148</v>
       </c>
       <c r="F1117" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1117" s="27" t="s">
         <v>20</v>
@@ -70003,7 +70000,7 @@
         <v>41</v>
       </c>
       <c r="F1118" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1118" s="27" t="s">
         <v>20</v>
@@ -70064,7 +70061,7 @@
         <v>147</v>
       </c>
       <c r="F1119" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1119" s="27" t="s">
         <v>20</v>
@@ -70125,7 +70122,7 @@
         <v>41</v>
       </c>
       <c r="F1120" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1120" s="27" t="s">
         <v>20</v>
@@ -70186,7 +70183,7 @@
         <v>58</v>
       </c>
       <c r="F1121" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1121" s="27" t="s">
         <v>20</v>
@@ -70247,7 +70244,7 @@
         <v>146</v>
       </c>
       <c r="F1122" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G1122" s="27" t="s">
         <v>20</v>
@@ -70265,10 +70262,10 @@
         <v>20</v>
       </c>
       <c r="L1122" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M1122" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N1122" s="27" t="s">
         <v>20</v>
@@ -70308,7 +70305,7 @@
         <v>147</v>
       </c>
       <c r="F1123" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1123" s="27" t="s">
         <v>20</v>
@@ -70317,7 +70314,7 @@
         <v>20</v>
       </c>
       <c r="I1123" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J1123" s="1" t="s">
         <v>20</v>
@@ -70369,7 +70366,7 @@
         <v>77</v>
       </c>
       <c r="F1124" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1124" s="27" t="s">
         <v>20</v>
@@ -70430,7 +70427,7 @@
         <v>147</v>
       </c>
       <c r="F1125" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G1125" s="27" t="s">
         <v>20</v>
@@ -70491,7 +70488,7 @@
         <v>147</v>
       </c>
       <c r="F1126" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1126" s="27" t="s">
         <v>20</v>
@@ -70613,7 +70610,7 @@
         <v>77</v>
       </c>
       <c r="F1128" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1128" s="27" t="s">
         <v>20</v>
@@ -70674,7 +70671,7 @@
         <v>58</v>
       </c>
       <c r="F1129" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1129" s="27" t="s">
         <v>20</v>
@@ -70735,7 +70732,7 @@
         <v>147</v>
       </c>
       <c r="F1130" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1130" s="27" t="s">
         <v>20</v>
@@ -70753,7 +70750,7 @@
         <v>20</v>
       </c>
       <c r="L1130" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M1130" s="27" t="s">
         <v>90</v>
@@ -70857,7 +70854,7 @@
         <v>122</v>
       </c>
       <c r="F1132" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1132" s="27" t="s">
         <v>20</v>
@@ -70918,7 +70915,7 @@
         <v>128</v>
       </c>
       <c r="F1133" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1133" s="27" t="s">
         <v>20</v>
@@ -71040,7 +71037,7 @@
         <v>147</v>
       </c>
       <c r="F1135" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1135" s="27" t="s">
         <v>20</v>
@@ -71049,7 +71046,7 @@
         <v>20</v>
       </c>
       <c r="I1135" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J1135" s="1" t="s">
         <v>20</v>
@@ -71101,7 +71098,7 @@
         <v>87</v>
       </c>
       <c r="F1136" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1136" s="27" t="s">
         <v>20</v>
@@ -71119,7 +71116,7 @@
         <v>20</v>
       </c>
       <c r="L1136" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M1136" s="27" t="s">
         <v>90</v>
@@ -71162,7 +71159,7 @@
         <v>41</v>
       </c>
       <c r="F1137" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1137" s="27" t="s">
         <v>20</v>
@@ -71223,7 +71220,7 @@
         <v>77</v>
       </c>
       <c r="F1138" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1138" s="27" t="s">
         <v>20</v>
@@ -71284,7 +71281,7 @@
         <v>146</v>
       </c>
       <c r="F1139" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G1139" s="27" t="s">
         <v>20</v>
@@ -71408,7 +71405,7 @@
         <v>109</v>
       </c>
       <c r="F1141" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1141" s="27" t="s">
         <v>20</v>
@@ -71469,7 +71466,7 @@
         <v>33</v>
       </c>
       <c r="F1142" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1142" s="27" t="s">
         <v>20</v>
@@ -71478,7 +71475,7 @@
         <v>20</v>
       </c>
       <c r="I1142" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J1142" s="1" t="s">
         <v>20</v>
@@ -71591,7 +71588,7 @@
         <v>77</v>
       </c>
       <c r="F1144" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1144" s="27" t="s">
         <v>20</v>
@@ -71652,7 +71649,7 @@
         <v>58</v>
       </c>
       <c r="F1145" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1145" s="27" t="s">
         <v>20</v>
@@ -71774,7 +71771,7 @@
         <v>87</v>
       </c>
       <c r="F1147" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1147" s="27" t="s">
         <v>20</v>
@@ -71853,7 +71850,7 @@
         <v>20</v>
       </c>
       <c r="L1148" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M1148" s="27" t="s">
         <v>107</v>
@@ -71957,7 +71954,7 @@
         <v>41</v>
       </c>
       <c r="F1150" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1150" s="27" t="s">
         <v>20</v>
@@ -72018,7 +72015,7 @@
         <v>58</v>
       </c>
       <c r="F1151" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1151" s="27" t="s">
         <v>20</v>
@@ -72036,7 +72033,7 @@
         <v>20</v>
       </c>
       <c r="L1151" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M1151" s="27" t="s">
         <v>107</v>
@@ -72079,7 +72076,7 @@
         <v>147</v>
       </c>
       <c r="F1152" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1152" s="27" t="s">
         <v>20</v>
@@ -72088,7 +72085,7 @@
         <v>20</v>
       </c>
       <c r="I1152" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J1152" s="1" t="s">
         <v>20</v>
@@ -72158,7 +72155,7 @@
         <v>20</v>
       </c>
       <c r="L1153" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M1153" s="27" t="s">
         <v>110</v>
@@ -72203,7 +72200,7 @@
         <v>148</v>
       </c>
       <c r="F1154" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1154" s="27" t="s">
         <v>20</v>
@@ -72221,7 +72218,7 @@
         <v>20</v>
       </c>
       <c r="L1154" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M1154" s="27" t="s">
         <v>107</v>
@@ -72325,7 +72322,7 @@
         <v>33</v>
       </c>
       <c r="F1156" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G1156" s="27" t="s">
         <v>20</v>
@@ -72343,10 +72340,10 @@
         <v>20</v>
       </c>
       <c r="L1156" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M1156" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N1156" s="27" t="s">
         <v>20</v>
@@ -72383,7 +72380,7 @@
         <v>20</v>
       </c>
       <c r="E1157" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F1157" s="27" t="s">
         <v>100</v>
@@ -72508,7 +72505,7 @@
         <v>33</v>
       </c>
       <c r="F1159" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1159" s="27" t="s">
         <v>20</v>
@@ -72517,7 +72514,7 @@
         <v>20</v>
       </c>
       <c r="I1159" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J1159" s="1" t="s">
         <v>20</v>
@@ -72569,7 +72566,7 @@
         <v>148</v>
       </c>
       <c r="F1160" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1160" s="27" t="s">
         <v>20</v>
@@ -72630,7 +72627,7 @@
         <v>87</v>
       </c>
       <c r="F1161" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1161" s="27" t="s">
         <v>20</v>
@@ -72691,7 +72688,7 @@
         <v>33</v>
       </c>
       <c r="F1162" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1162" s="27" t="s">
         <v>20</v>
@@ -72752,7 +72749,7 @@
         <v>58</v>
       </c>
       <c r="F1163" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1163" s="27" t="s">
         <v>20</v>
@@ -72770,7 +72767,7 @@
         <v>20</v>
       </c>
       <c r="L1163" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M1163" s="27" t="s">
         <v>90</v>
@@ -72874,7 +72871,7 @@
         <v>67</v>
       </c>
       <c r="F1165" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1165" s="27" t="s">
         <v>20</v>
@@ -72892,7 +72889,7 @@
         <v>20</v>
       </c>
       <c r="L1165" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M1165" s="27" t="s">
         <v>85</v>
@@ -73118,7 +73115,7 @@
         <v>87</v>
       </c>
       <c r="F1169" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1169" s="27" t="s">
         <v>20</v>
@@ -73179,7 +73176,7 @@
         <v>77</v>
       </c>
       <c r="F1170" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1170" s="27" t="s">
         <v>20</v>
@@ -73240,7 +73237,7 @@
         <v>147</v>
       </c>
       <c r="F1171" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1171" s="27" t="s">
         <v>20</v>
@@ -73258,7 +73255,7 @@
         <v>20</v>
       </c>
       <c r="L1171" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M1171" s="27" t="s">
         <v>85</v>
@@ -73322,7 +73319,7 @@
         <v>109</v>
       </c>
       <c r="M1172" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N1172" s="27" t="s">
         <v>115</v>
@@ -73359,7 +73356,7 @@
         <v>20</v>
       </c>
       <c r="E1173" s="1" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="F1173" s="27" t="s">
         <v>118</v>
@@ -73423,7 +73420,7 @@
         <v>128</v>
       </c>
       <c r="F1174" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1174" s="27" t="s">
         <v>20</v>
@@ -73484,7 +73481,7 @@
         <v>122</v>
       </c>
       <c r="F1175" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1175" s="27" t="s">
         <v>20</v>
@@ -73606,7 +73603,7 @@
         <v>41</v>
       </c>
       <c r="F1177" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1177" s="27" t="s">
         <v>20</v>
@@ -73667,7 +73664,7 @@
         <v>23</v>
       </c>
       <c r="F1178" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1178" s="27" t="s">
         <v>20</v>
@@ -73728,7 +73725,7 @@
         <v>41</v>
       </c>
       <c r="F1179" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1179" s="27" t="s">
         <v>20</v>
@@ -73789,7 +73786,7 @@
         <v>147</v>
       </c>
       <c r="F1180" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1180" s="27" t="s">
         <v>20</v>
@@ -73911,7 +73908,7 @@
         <v>146</v>
       </c>
       <c r="F1182" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1182" s="27" t="s">
         <v>20</v>
@@ -73990,7 +73987,7 @@
         <v>20</v>
       </c>
       <c r="L1183" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M1183" s="27" t="s">
         <v>98</v>
@@ -74030,10 +74027,10 @@
         <v>20</v>
       </c>
       <c r="E1184" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F1184" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1184" s="27" t="s">
         <v>20</v>
@@ -74091,10 +74088,10 @@
         <v>20</v>
       </c>
       <c r="E1185" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F1185" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1185" s="27" t="s">
         <v>20</v>
@@ -74155,7 +74152,7 @@
         <v>41</v>
       </c>
       <c r="F1186" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1186" s="27" t="s">
         <v>20</v>
@@ -74216,7 +74213,7 @@
         <v>58</v>
       </c>
       <c r="F1187" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1187" s="27" t="s">
         <v>20</v>
@@ -74277,7 +74274,7 @@
         <v>148</v>
       </c>
       <c r="F1188" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1188" s="27" t="s">
         <v>20</v>
@@ -74338,7 +74335,7 @@
         <v>91</v>
       </c>
       <c r="F1189" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G1189" s="27" t="s">
         <v>20</v>
@@ -74356,7 +74353,7 @@
         <v>20</v>
       </c>
       <c r="L1189" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M1189" s="27" t="s">
         <v>154</v>
@@ -74399,7 +74396,7 @@
         <v>91</v>
       </c>
       <c r="F1190" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1190" s="27" t="s">
         <v>20</v>
@@ -74460,7 +74457,7 @@
         <v>146</v>
       </c>
       <c r="F1191" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1191" s="27" t="s">
         <v>20</v>
@@ -74521,7 +74518,7 @@
         <v>148</v>
       </c>
       <c r="F1192" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1192" s="27" t="s">
         <v>20</v>
@@ -74661,7 +74658,7 @@
         <v>20</v>
       </c>
       <c r="L1194" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M1194" s="27" t="s">
         <v>85</v>
@@ -74725,7 +74722,7 @@
         <v>109</v>
       </c>
       <c r="M1195" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N1195" s="27" t="s">
         <v>115</v>
@@ -74826,7 +74823,7 @@
         <v>91</v>
       </c>
       <c r="F1197" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G1197" s="27" t="s">
         <v>20</v>
@@ -74847,7 +74844,7 @@
         <v>116</v>
       </c>
       <c r="M1197" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N1197" s="27" t="s">
         <v>20</v>
@@ -74948,7 +74945,7 @@
         <v>33</v>
       </c>
       <c r="F1199" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1199" s="27" t="s">
         <v>20</v>
@@ -75009,7 +75006,7 @@
         <v>147</v>
       </c>
       <c r="F1200" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1200" s="27" t="s">
         <v>20</v>
@@ -75070,7 +75067,7 @@
         <v>58</v>
       </c>
       <c r="F1201" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1201" s="27" t="s">
         <v>20</v>
@@ -75131,7 +75128,7 @@
         <v>147</v>
       </c>
       <c r="F1202" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1202" s="27" t="s">
         <v>20</v>
@@ -75149,7 +75146,7 @@
         <v>20</v>
       </c>
       <c r="L1202" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M1202" s="27" t="s">
         <v>85</v>
@@ -75192,7 +75189,7 @@
         <v>58</v>
       </c>
       <c r="F1203" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1203" s="27" t="s">
         <v>20</v>
@@ -75253,7 +75250,7 @@
         <v>87</v>
       </c>
       <c r="F1204" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1204" s="27" t="s">
         <v>20</v>
@@ -75375,7 +75372,7 @@
         <v>109</v>
       </c>
       <c r="F1206" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1206" s="27" t="s">
         <v>20</v>
@@ -75497,7 +75494,7 @@
         <v>77</v>
       </c>
       <c r="F1208" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1208" s="27" t="s">
         <v>20</v>
@@ -75558,7 +75555,7 @@
         <v>58</v>
       </c>
       <c r="F1209" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1209" s="27" t="s">
         <v>20</v>
@@ -75619,7 +75616,7 @@
         <v>109</v>
       </c>
       <c r="F1210" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1210" s="27" t="s">
         <v>20</v>
@@ -75741,7 +75738,7 @@
         <v>91</v>
       </c>
       <c r="F1212" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1212" s="27" t="s">
         <v>20</v>
@@ -75863,7 +75860,7 @@
         <v>41</v>
       </c>
       <c r="F1214" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1214" s="27" t="s">
         <v>20</v>
@@ -75924,7 +75921,7 @@
         <v>148</v>
       </c>
       <c r="F1215" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1215" s="27" t="s">
         <v>20</v>
@@ -75942,7 +75939,7 @@
         <v>20</v>
       </c>
       <c r="L1215" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M1215" s="27" t="s">
         <v>90</v>
@@ -76003,10 +76000,10 @@
         <v>20</v>
       </c>
       <c r="L1216" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M1216" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N1216" s="27" t="s">
         <v>20</v>
@@ -76043,7 +76040,7 @@
         <v>20</v>
       </c>
       <c r="E1217" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F1217" s="27" t="s">
         <v>114</v>
@@ -76104,10 +76101,10 @@
         <v>20</v>
       </c>
       <c r="E1218" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F1218" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1218" s="27" t="s">
         <v>20</v>
@@ -76168,7 +76165,7 @@
         <v>122</v>
       </c>
       <c r="F1219" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1219" s="27" t="s">
         <v>20</v>
@@ -76290,7 +76287,7 @@
         <v>41</v>
       </c>
       <c r="F1221" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1221" s="27" t="s">
         <v>20</v>
@@ -76412,7 +76409,7 @@
         <v>131</v>
       </c>
       <c r="F1223" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1223" s="27" t="s">
         <v>20</v>
@@ -76470,10 +76467,10 @@
         <v>20</v>
       </c>
       <c r="E1224" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F1224" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1224" s="27" t="s">
         <v>20</v>
@@ -76534,7 +76531,7 @@
         <v>113</v>
       </c>
       <c r="F1225" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1225" s="27" t="s">
         <v>20</v>
@@ -76592,10 +76589,10 @@
         <v>20</v>
       </c>
       <c r="E1226" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F1226" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1226" s="27" t="s">
         <v>20</v>
@@ -76653,10 +76650,10 @@
         <v>20</v>
       </c>
       <c r="E1227" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F1227" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G1227" s="27" t="s">
         <v>20</v>
@@ -76714,10 +76711,10 @@
         <v>20</v>
       </c>
       <c r="E1228" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F1228" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1228" s="27" t="s">
         <v>20</v>
@@ -76839,7 +76836,7 @@
         <v>33</v>
       </c>
       <c r="F1230" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1230" s="27" t="s">
         <v>20</v>
@@ -76900,7 +76897,7 @@
         <v>49</v>
       </c>
       <c r="F1231" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1231" s="27" t="s">
         <v>20</v>
@@ -76961,7 +76958,7 @@
         <v>148</v>
       </c>
       <c r="F1232" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1232" s="27" t="s">
         <v>20</v>
@@ -77022,7 +77019,7 @@
         <v>77</v>
       </c>
       <c r="F1233" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1233" s="27" t="s">
         <v>20</v>
@@ -77040,7 +77037,7 @@
         <v>20</v>
       </c>
       <c r="L1233" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M1233" s="27" t="s">
         <v>90</v>
@@ -77083,7 +77080,7 @@
         <v>148</v>
       </c>
       <c r="F1234" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1234" s="27" t="s">
         <v>20</v>
@@ -77144,7 +77141,7 @@
         <v>41</v>
       </c>
       <c r="F1235" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1235" s="27" t="s">
         <v>20</v>
@@ -77266,7 +77263,7 @@
         <v>148</v>
       </c>
       <c r="F1237" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1237" s="27" t="s">
         <v>20</v>
@@ -77315,7 +77312,7 @@
         <v>1115</v>
       </c>
       <c r="B1238" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1238" s="1" t="s">
         <v>20</v>
@@ -77327,7 +77324,7 @@
         <v>87</v>
       </c>
       <c r="F1238" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1238" s="27" t="s">
         <v>20</v>
@@ -77376,7 +77373,7 @@
         <v>1116</v>
       </c>
       <c r="B1239" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1239" s="1" t="s">
         <v>20</v>
@@ -77388,7 +77385,7 @@
         <v>77</v>
       </c>
       <c r="F1239" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G1239" s="27" t="s">
         <v>20</v>
@@ -77437,7 +77434,7 @@
         <v>1117</v>
       </c>
       <c r="B1240" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1240" s="1" t="s">
         <v>20</v>
@@ -77498,7 +77495,7 @@
         <v>1118</v>
       </c>
       <c r="B1241" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1241" s="1" t="s">
         <v>20</v>
@@ -77559,7 +77556,7 @@
         <v>1118</v>
       </c>
       <c r="B1242" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1242" s="1" t="s">
         <v>20</v>
@@ -77592,7 +77589,7 @@
         <v>109</v>
       </c>
       <c r="M1242" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N1242" s="27" t="s">
         <v>115</v>
@@ -77620,7 +77617,7 @@
         <v>1119</v>
       </c>
       <c r="B1243" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1243" s="1" t="s">
         <v>20</v>

--- a/source/excel/2016-olympic-qualifiers-concacaf/2016-olympic-qualifiers-concacaf-usa-pur-021516.xlsx
+++ b/source/excel/2016-olympic-qualifiers-concacaf/2016-olympic-qualifiers-concacaf-usa-pur-021516.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match!$A$1:$T$1245</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">match!$A$1:$T$1245</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1872,9 +1872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="29" topLeftCell="A1233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1238" sqref="R1238"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane ySplit="29" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
